--- a/studygo/day04/程序生成的/语音房基础功能.xlsx
+++ b/studygo/day04/程序生成的/语音房基础功能.xlsx
@@ -359,20 +359,16 @@
       <c r="A2" t="str">
         <v>进入榜单页</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;语音房内，点击房间榜单入口&lt;/p&gt;</v>
+        <v>语音房内，点击房间榜单入口</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;进入到榜单页&lt;/p&gt;</v>
+        <v>进入到榜单页</v>
       </c>
     </row>
     <row r="3">
@@ -380,13 +376,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;查看榜单UI&lt;/p&gt;</v>
+        <v>查看榜单UI</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.榜单包括日榜、周榜、月榜，从左到右排序，默认进入为日榜单
-&lt;br&gt;2.日榜榜单凸显前3名，显示用户头像、昵称、性别、贡献值
-&lt;br&gt;3.昵称长度限制（以设计稿V&lt;br&gt;3.1为准）
-&lt;br&gt;4.榜单最多显示前100名&lt;/p&gt;</v>
+        <v>1.榜单包括日榜、周榜、月榜，从左到右排序，默认进入为日榜单
+2.日榜榜单凸显前3名，显示用户头像、昵称、性别、贡献值
+3.昵称长度限制（以设计稿V3.1为准）
+4.榜单最多显示前100名</v>
       </c>
     </row>
     <row r="4"/>
@@ -394,20 +390,16 @@
       <c r="A5" t="str">
         <v>榜单用户资料卡</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
+      <c r="C5" t="str"/>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;点击榜单上的用户信息区&lt;/p&gt;</v>
+        <v>点击榜单上的用户信息区</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;跳转用户资料卡&lt;/p&gt;</v>
+        <v>跳转用户资料卡</v>
       </c>
     </row>
     <row r="6">
@@ -415,10 +407,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;点击空返回&lt;/p&gt;</v>
+        <v>点击空返回</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;跳转回到榜单&lt;/p&gt;</v>
+        <v>跳转回到榜单</v>
       </c>
     </row>
     <row r="7"/>
@@ -426,23 +418,19 @@
       <c r="A8" t="str">
         <v>切换榜单</v>
       </c>
-      <c r="B8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B8" t="str"/>
+      <c r="C8" t="str"/>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;停留在日榜，点击周榜tab&lt;/p&gt;</v>
+        <v>停留在日榜，点击周榜tab</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.切换到周榜页，周榜tab被选中
-&lt;br&gt;2.凸显前3名，显示用户头像、昵称、性别、贡献值
-&lt;br&gt;3.榜单最多显示前100名
-&lt;br&gt;4.昵称长度限制（以设计稿V&lt;br&gt;3.1为准）&lt;/p&gt;</v>
+        <v>1.切换到周榜页，周榜tab被选中
+2.凸显前3名，显示用户头像、昵称、性别、贡献值
+3.榜单最多显示前100名
+4.昵称长度限制（以设计稿V3.1为准）</v>
       </c>
     </row>
     <row r="9">
@@ -450,13 +438,13 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;停留在日榜，左滑&lt;/p&gt;</v>
+        <v>停留在日榜，左滑</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;左滑切换到周榜，周榜tab被选中
-&lt;br&gt;2.凸显前3名，显示用户头像、昵称、性别、贡献值
-&lt;br&gt;3.榜单最多显示前100名
-&lt;br&gt;4.昵称长度限制（以设计稿V&lt;br&gt;3.1为准）&lt;/p&gt;</v>
+        <v>左滑切换到周榜，周榜tab被选中
+2.凸显前3名，显示用户头像、昵称、性别、贡献值
+3.榜单最多显示前100名
+4.昵称长度限制（以设计稿V3.1为准）</v>
       </c>
     </row>
     <row r="10">
@@ -464,13 +452,13 @@
         <v>3</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;停留在周榜，点击月榜tab&lt;/p&gt;</v>
+        <v>停留在周榜，点击月榜tab</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.切换到月榜页，月榜tab被选中
-&lt;br&gt;2.凸显前3名，显示用户头像、昵称、性别、贡献值
-&lt;br&gt;3.榜单最多显示前100名
-&lt;br&gt;4.昵称长度限制（以设计稿V&lt;br&gt;3.1为准）&lt;/p&gt;</v>
+        <v>1.切换到月榜页，月榜tab被选中
+2.凸显前3名，显示用户头像、昵称、性别、贡献值
+3.榜单最多显示前100名
+4.昵称长度限制（以设计稿V3.1为准）</v>
       </c>
     </row>
     <row r="11">
@@ -478,13 +466,13 @@
         <v>4</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;停留在周榜，左滑月榜tab&lt;/p&gt;</v>
+        <v>停留在周榜，左滑月榜tab</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.切换到月榜页，月榜tab被选中
-&lt;br&gt;2.凸显前3名，显示用户头像、昵称、性别、贡献值
-&lt;br&gt;3.榜单最多显示前100名
-&lt;br&gt;4.昵称长度限制（以设计稿V&lt;br&gt;3.1为准）&lt;/p&gt;</v>
+        <v>1.切换到月榜页，月榜tab被选中
+2.凸显前3名，显示用户头像、昵称、性别、贡献值
+3.榜单最多显示前100名
+4.昵称长度限制（以设计稿V3.1为准）</v>
       </c>
     </row>
     <row r="12">
@@ -492,10 +480,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;停留在月榜，右滑/点击到周榜tab&lt;/p&gt;</v>
+        <v>停留在月榜，右滑/点击到周榜tab</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;滑动周榜页，周榜tab被选中&lt;/p&gt;</v>
+        <v>滑动周榜页，周榜tab被选中</v>
       </c>
     </row>
     <row r="13">
@@ -503,10 +491,10 @@
         <v>6</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;停留在周榜，右滑/点击到日榜tab&lt;/p&gt;</v>
+        <v>停留在周榜，右滑/点击到日榜tab</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;滑动日榜页，日榜tab被选中&lt;/p&gt;</v>
+        <v>滑动日榜页，日榜tab被选中</v>
       </c>
     </row>
     <row r="14"/>
@@ -515,27 +503,25 @@
         <v>排名清空、累积</v>
       </c>
       <c r="B15" t="str">
-        <v>&lt;p&gt;
-	日榜逻辑：实时更新，统计1日内的送礼数据，每日0点重置； 周榜逻辑：实时更新，统计自然周总数据，每周一0点重置； 月榜：实时更新，统计自然月总数据，每月1日0点重置；&lt;/p&gt;
-&lt;p&gt;
-	测试时可以让服务器开发将重置时间改短，如日榜每5分钟重置，周榜10分钟，月榜半个小时重置&lt;/p&gt;
+        <v>
+	日榜逻辑：实时更新，统计1日内的送礼数据，每日0点重置； 周榜逻辑：实时更新，统计自然周总数据，每周一0点重置； 月榜：实时更新，统计自然月总数据，每月1日0点重置；
+	测试时可以让服务器开发将重置时间改短，如日榜每5分钟重置，周榜10分钟，月榜半个小时重置
 </v>
       </c>
       <c r="C15" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.当月未有用户消费过&lt;br /&gt;
-	2.需要后台开发配合，修改重置时间测试&lt;/p&gt;
+        <v>
+	1.当月未有用户消费过
+	2.需要后台开发配合，修改重置时间测试
 </v>
       </c>
       <c r="D15" t="str">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;当天用户A先消费100，后用户B消费100，用户C消费200&lt;/p&gt;</v>
+        <v>当天用户A先消费100，后用户B消费100，用户C消费200</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;当前三榜排名:用户C&gt;用户A&gt;用户B&lt;/p&gt;</v>
+        <v>当前三榜排名:用户C&gt;用户A&gt;用户B</v>
       </c>
     </row>
     <row r="16">
@@ -543,11 +529,11 @@
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;过了晚上0点后，查看日榜、周榜、月榜&lt;/p&gt;</v>
+        <v>过了晚上0点后，查看日榜、周榜、月榜</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.日榜清空，当前无排名，文案提示“今日榜暂无人上榜”
-&lt;br&gt;2.周榜跟月榜排名依旧是用户C&gt;用户A&gt;用户B&lt;/p&gt;</v>
+        <v>1.日榜清空，当前无排名，文案提示“今日榜暂无人上榜”
+2.周榜跟月榜排名依旧是用户C&gt;用户A&gt;用户B</v>
       </c>
     </row>
     <row r="17">
@@ -555,11 +541,11 @@
         <v>3</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;同一个月份，过了非周一晚上的0点后，用户A消费200钻石，用户B消费100钻，用户C不消费，查看榜单排名&lt;/p&gt;</v>
+        <v>同一个月份，过了非周一晚上的0点后，用户A消费200钻石，用户B消费100钻，用户C不消费，查看榜单排名</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.日榜：用户A（200）&gt;用户B（100）
-&lt;br&gt;2.周榜和月榜都是：用户A（300）&gt;用户C（200）&gt;用户B（200）&lt;/p&gt;</v>
+        <v>1.日榜：用户A（200）&gt;用户B（100）
+2.周榜和月榜都是：用户A（300）&gt;用户C（200）&gt;用户B（200）</v>
       </c>
     </row>
     <row r="18">
@@ -567,15 +553,14 @@
         <v>4</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;
-	同一个月份，到了周一晚上0点后，查看榜单&lt;/p&gt;
+        <v>
+	同一个月份，到了周一晚上0点后，查看榜单
 </v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.日榜、周榜清空&lt;br /&gt;
-	2.月榜都是：用户A（300）&amp;gt;用户C（200）&amp;gt;用户B（200）&lt;/p&gt;
+        <v>
+	1.日榜、周榜清空
+	2.月榜都是：用户A（300）用户C（200）用户B（200）
 </v>
       </c>
     </row>
@@ -584,15 +569,14 @@
         <v>5</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;
-	周一晚上0点后，用户C消费200钻，用户B消费100钻，用户A不消费，查看日榜，周榜、月榜&lt;/p&gt;
+        <v>
+	周一晚上0点后，用户C消费200钻，用户B消费100钻，用户A不消费，查看日榜，周榜、月榜
 </v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.日榜跟周榜：用户C（200）&amp;gt;用户B（100）&amp;gt;用户A（0）&lt;br /&gt;
-	2.月榜：用户C（400）&amp;gt;用户A（300）&amp;gt;用户B（300）&lt;/p&gt;
+        <v>
+	1.日榜跟周榜：用户C（200）用户B（100）用户A（0）
+	2.月榜：用户C（400）用户A（300）用户B（300）
 </v>
       </c>
     </row>
@@ -601,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;次月一号晚上0点后，查看榜单&lt;/p&gt;</v>
+        <v>次月一号晚上0点后，查看榜单</v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;日榜、周榜、月榜都清空，当前无排名&lt;/p&gt;</v>
+        <v>日榜、周榜、月榜都清空，当前无排名</v>
       </c>
     </row>
     <row r="21"/>
@@ -612,25 +596,21 @@
       <c r="A22" t="str">
         <v>榜单说明页</v>
       </c>
-      <c r="B22" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C22" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B22" t="str"/>
+      <c r="C22" t="str"/>
       <c r="D22" t="str">
         <v>1</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;在榜单页，点击说明按钮&lt;/p&gt;</v>
+        <v>在榜单页，点击说明按钮</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.打开说明页，弹窗文案：
-&lt;br&gt;2.榜单以您在本房间的贡献为维度进行排行，送礼越多，排名越前
-&lt;br&gt;3.日榜每日21:00更新，周榜每周一21:00更新，月榜每月1日21:00更新
-&lt;br&gt;4.榜单仅显示本房间前100名贡献用户
-&lt;br&gt;5.追读小说保留对榜单规则的调整权和解释权
-&lt;/p&gt;</v>
+        <v>1.打开说明页，弹窗文案：
+2.榜单以您在本房间的贡献为维度进行排行，送礼越多，排名越前
+3.日榜每日21:00更新，周榜每周一21:00更新，月榜每月1日21:00更新
+4.榜单仅显示本房间前100名贡献用户
+5.追读小说保留对榜单规则的调整权和解释权
+</v>
       </c>
     </row>
     <row r="23">
@@ -638,10 +618,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;点击我知道了&lt;/p&gt;</v>
+        <v>点击我知道了</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;关闭说明页，回到榜单页&lt;/p&gt;</v>
+        <v>关闭说明页，回到榜单页</v>
       </c>
     </row>
     <row r="24"/>
@@ -650,26 +630,26 @@
         <v>排名：相同贡献值，时间优先</v>
       </c>
       <c r="B25" t="str">
-        <v>&lt;p&gt;
-	需要服务器开发修改榜单更新时间，配合测试&lt;/p&gt;
+        <v>
+	需要服务器开发修改榜单更新时间，配合测试
 </v>
       </c>
       <c r="C25" t="str">
-        <v>&lt;p&gt;
-	用户A/B/C，当前榜单无排名&lt;/p&gt;
+        <v>
+	用户A/B/C，当前榜单无排名
 </v>
       </c>
       <c r="D25" t="str">
         <v>1</v>
       </c>
       <c r="E25" t="str">
-        <v>&lt;p&gt;
-	用户A在直播间送礼的蓝钻数额为100，其他B/C用户为0，查看日榜、周榜、月榜&lt;/p&gt;
+        <v>
+	用户A在直播间送礼的蓝钻数额为100，其他B/C用户为0，查看日榜、周榜、月榜
 </v>
       </c>
       <c r="F25" t="str">
-        <v>&lt;p&gt;
-	三榜，用户A排在第一位&lt;/p&gt;
+        <v>
+	三榜，用户A排在第一位
 </v>
       </c>
     </row>
@@ -678,13 +658,13 @@
         <v>2</v>
       </c>
       <c r="E26" t="str">
-        <v>&lt;p&gt;
-	用户B送礼的蓝钻数额为100，查看日榜、周榜、月榜&lt;/p&gt;
+        <v>
+	用户B送礼的蓝钻数额为100，查看日榜、周榜、月榜
 </v>
       </c>
       <c r="F26" t="str">
-        <v>&lt;p&gt;
-	三榜，用户A排在第一位，用户B排在第二位&lt;/p&gt;
+        <v>
+	三榜，用户A排在第一位，用户B排在第二位
 </v>
       </c>
     </row>
@@ -693,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="E27" t="str">
-        <v>&lt;p&gt;
-	用户C送礼的蓝钻数额为200，查看日榜、周榜、月榜&lt;/p&gt;
+        <v>
+	用户C送礼的蓝钻数额为200，查看日榜、周榜、月榜
 </v>
       </c>
       <c r="F27" t="str">
-        <v>&lt;p&gt;
-	三榜，用户C排在第一位，用户A排在第二位，用户B排在第三位&lt;/p&gt;
+        <v>
+	三榜，用户C排在第一位，用户A排在第二位，用户B排在第三位
 </v>
       </c>
     </row>
@@ -708,20 +688,18 @@
       <c r="A29" t="str">
         <v>周榜与月榜</v>
       </c>
-      <c r="B29" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B29" t="str"/>
       <c r="C29" t="str">
-        <v>&lt;p&gt;当月29号，距离月榜重置，还有2天，此时周二，距离下次周榜重置，还有7天&lt;/p&gt;</v>
+        <v>当月29号，距离月榜重置，还有2天，此时周二，距离下次周榜重置，还有7天</v>
       </c>
       <c r="D29" t="str">
         <v>1</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;当月28号，周二，有多个用户送礼，用户A消费1000钻，用户B消费500钻，用户C消费100钻&lt;/p&gt;</v>
+        <v>当月28号，周二，有多个用户送礼，用户A消费1000钻，用户B消费500钻，用户C消费100钻</v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;周榜跟月榜排名为：用户A（1000）&lt;&lt;用户B（500）&lt;&lt;用户C（100）&lt;/p&gt;</v>
+        <v>周榜跟月榜排名为：用户A（1000）</v>
       </c>
     </row>
     <row r="30">
@@ -729,11 +707,11 @@
         <v>2</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;当月1号9点后，查看&lt;/p&gt;</v>
+        <v>当月1号9点后，查看</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.周榜排名为：用户A（1000）&lt;&lt;用户B（500）&lt;&lt;用户C（100）
-&lt;br&gt;2.月榜排名重置，当前无排名&lt;/p&gt;</v>
+        <v>1.周榜排名为：用户A（1000）&lt;&lt;用户B（500）&lt;&lt;用户C（100）
+2.月榜排名重置，当前无排名</v>
       </c>
     </row>
     <row r="31">
@@ -741,11 +719,11 @@
         <v>3</v>
       </c>
       <c r="E31" t="str">
-        <v>&lt;p&gt;当月1号9点后（周五），用户C先消费900钻，用户B后消费500钻，用户A未消费，查看&lt;/p&gt;</v>
+        <v>当月1号9点后（周五），用户C先消费900钻，用户B后消费500钻，用户A未消费，查看</v>
       </c>
       <c r="F31" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.周榜排名：用户A（1000）&lt;&lt;用户C（1000）&lt;&lt;用户B（1000）
-&lt;br&gt;2.月榜：用户C（900）&lt;&lt;用户B（500）&lt;/p&gt;</v>
+        <v>1.周榜排名：用户A（1000）&lt;&lt;用户C（1000）&lt;&lt;用户B（1000）
+2.月榜：用户C（900）</v>
       </c>
     </row>
     <row r="32"/>
@@ -753,20 +731,18 @@
       <c r="A33" t="str">
         <v>送礼后异常操作</v>
       </c>
-      <c r="B33" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B33" t="str"/>
       <c r="C33" t="str">
-        <v>&lt;p&gt;直播间排行榜未排满100人或最低名次低于1000钻&lt;/p&gt;</v>
+        <v>直播间排行榜未排满100人或最低名次低于1000钻</v>
       </c>
       <c r="D33" t="str">
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>&lt;p&gt;当前用户A在直播间累计消费0钻，送礼1000钻后，杀掉进程，再重启直播间查看排行榜&lt;/p&gt;</v>
+        <v>当前用户A在直播间累计消费0钻，送礼1000钻后，杀掉进程，再重启直播间查看排行榜</v>
       </c>
       <c r="F33" t="str">
-        <v>&lt;p&gt;可以看到用户A消费1000钻，且上榜&lt;/p&gt;</v>
+        <v>可以看到用户A消费1000钻，且上榜</v>
       </c>
     </row>
     <row r="34">
@@ -774,10 +750,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;当前用户A在直播间累计消费1000钻，送礼1000钻后，切后台再回到直播间查看排行榜&lt;/p&gt;</v>
+        <v>当前用户A在直播间累计消费1000钻，送礼1000钻后，切后台再回到直播间查看排行榜</v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;可以看到用户A消费2000钻，且榜单排名更靠前&lt;/p&gt;</v>
+        <v>可以看到用户A消费2000钻，且榜单排名更靠前</v>
       </c>
     </row>
     <row r="35">
@@ -785,10 +761,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>&lt;p&gt;当前用户A在直播间累计消费2000钻，送礼1000钻后，断开网络后恢复网络回到直播间查看排行榜&lt;/p&gt;</v>
+        <v>当前用户A在直播间累计消费2000钻，送礼1000钻后，断开网络后恢复网络回到直播间查看排行榜</v>
       </c>
       <c r="F35" t="str">
-        <v>&lt;p&gt;可以看到用户A消费3000钻，且榜单排名更靠前&lt;/p&gt;</v>
+        <v>可以看到用户A消费3000钻，且榜单排名更靠前</v>
       </c>
     </row>
     <row r="36">
@@ -796,11 +772,11 @@
         <v>4</v>
       </c>
       <c r="E36" t="str">
-        <v>&lt;p&gt;当前用户A累计消费3000钻，弱网状态下，送礼&lt;/p&gt;</v>
+        <v>当前用户A累计消费3000钻，弱网状态下，送礼</v>
       </c>
       <c r="F36" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.赠送成功后，此时榜单上可看到用户A累计消费4000钻石，且排名更靠前
-&lt;br&gt;2.赠送不成功，此时榜单上用户A累计消费不变依旧是3000钻石，排名不变&lt;/p&gt;</v>
+        <v>1.赠送成功后，此时榜单上可看到用户A累计消费4000钻石，且排名更靠前
+2.赠送不成功，此时榜单上用户A累计消费不变依旧是3000钻石，排名不变</v>
       </c>
     </row>
     <row r="37">
@@ -808,11 +784,11 @@
         <v>5</v>
       </c>
       <c r="E37" t="str">
-        <v>&lt;p&gt;网络恢复后，查看步骤4&lt;/p&gt;</v>
+        <v>网络恢复后，查看步骤4</v>
       </c>
       <c r="F37" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.赠送成功后，此时榜单上可看到用户A累计消费4000钻石，且排名更靠前
-&lt;br&gt;2.赠送不成功，此时榜单上用户A累计消费不变依旧是3000钻石，排名不变&lt;/p&gt;</v>
+        <v>1.赠送成功后，此时榜单上可看到用户A累计消费4000钻石，且排名更靠前
+2.赠送不成功，此时榜单上用户A累计消费不变依旧是3000钻石，排名不变</v>
       </c>
     </row>
   </sheetData>
@@ -850,20 +826,18 @@
       <c r="A2" t="str">
         <v>座位大表情-房主</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;语音房&lt;/p&gt;</v>
+        <v>语音房</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;房主进入语音房，查看底部&lt;/p&gt;</v>
+        <v>房主进入语音房，查看底部</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;底部发言按钮右侧出现表情icon按钮&lt;/p&gt;</v>
+        <v>底部发言按钮右侧出现表情icon按钮</v>
       </c>
     </row>
     <row r="3">
@@ -871,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;房主点击表情icon&lt;/p&gt;</v>
+        <v>房主点击表情icon</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;展开表情面板（以设计稿为准）&lt;/p&gt;</v>
+        <v>展开表情面板（以设计稿为准）</v>
       </c>
     </row>
     <row r="4">
@@ -882,11 +856,11 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;点击任意表情&lt;/p&gt;</v>
+        <v>点击任意表情</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1、房主麦位上展现该表情动态效果，房间内的用户都可以查看到
-&lt;br&gt;2、自动收起表情窗口&lt;/p&gt;</v>
+        <v>1、房主麦位上展现该表情动态效果，房间内的用户都可以查看到
+2、自动收起表情窗口</v>
       </c>
     </row>
     <row r="5"/>
@@ -895,20 +869,20 @@
         <v>座位大表情-非房主</v>
       </c>
       <c r="B6" t="str">
-        <v>&lt;p&gt;
-&lt;/p&gt;</v>
+        <v>
+</v>
       </c>
       <c r="C6" t="str">
-        <v>&lt;p&gt;语音房&lt;/p&gt;</v>
+        <v>语音房</v>
       </c>
       <c r="D6" t="str">
         <v>1</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;麦下用户A查看底部功能按钮&lt;/p&gt;</v>
+        <v>麦下用户A查看底部功能按钮</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;没有【表情】入口&lt;/p&gt;</v>
+        <v>没有【表情】入口</v>
       </c>
     </row>
     <row r="7">
@@ -916,10 +890,10 @@
         <v>2</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;点击上麦&lt;/p&gt;</v>
+        <v>点击上麦</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;上麦后底部发言按钮右侧出现表情icon按钮&lt;/p&gt;</v>
+        <v>上麦后底部发言按钮右侧出现表情icon按钮</v>
       </c>
     </row>
     <row r="8">
@@ -927,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;点击表情icon&lt;/p&gt;</v>
+        <v>点击表情icon</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;展开表情窗口栏&lt;/p&gt;</v>
+        <v>展开表情窗口栏</v>
       </c>
     </row>
     <row r="9">
@@ -938,11 +912,11 @@
         <v>4</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;点击任一表情&lt;/p&gt;</v>
+        <v>点击任一表情</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1、A用户表情上展现该表情动态效果，房间内的用户都可以查看到
-&lt;br&gt;2、自动收起表情窗口&lt;/p&gt;</v>
+        <v>1、A用户表情上展现该表情动态效果，房间内的用户都可以查看到
+2、自动收起表情窗口</v>
       </c>
     </row>
     <row r="10">
@@ -950,10 +924,10 @@
         <v>5</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;点击下麦&lt;/p&gt;</v>
+        <v>点击下麦</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;下麦成功，底部表情入口隐藏&lt;/p&gt;</v>
+        <v>下麦成功，底部表情入口隐藏</v>
       </c>
     </row>
   </sheetData>
@@ -991,20 +965,18 @@
       <c r="A2" t="str">
         <v>语言房IM入口检查</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;测试前有用户给该用户发消息并且有创建语言房&lt;/p&gt;</v>
+        <v>测试前有用户给该用户发消息并且有创建语言房</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;A用户登录APP进入自己的语音房，并且当前没有未读IM消息&lt;/p&gt;</v>
+        <v>A用户登录APP进入自己的语音房，并且当前没有未读IM消息</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;底部工具栏显示一个IM消息入口，入口上没有红色未读消息提醒&lt;/p&gt;</v>
+        <v>底部工具栏显示一个IM消息入口，入口上没有红色未读消息提醒</v>
       </c>
     </row>
     <row r="3">
@@ -1012,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;B给A发消息，A检查语音房的IM入口&lt;/p&gt;</v>
+        <v>B给A发消息，A检查语音房的IM入口</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;入口上有1条未读消息数量显示，并且入口上显示B的头像&lt;/p&gt;</v>
+        <v>入口上有1条未读消息数量显示，并且入口上显示B的头像</v>
       </c>
     </row>
     <row r="4">
@@ -1023,10 +995,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;C给A发消息，A检查语音房的IM入口&lt;/p&gt;</v>
+        <v>C给A发消息，A检查语音房的IM入口</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;入口上有2条未读消息数量显示，并且入口上显示C的头像&lt;/p&gt;</v>
+        <v>入口上有2条未读消息数量显示，并且入口上显示C的头像</v>
       </c>
     </row>
     <row r="5">
@@ -1034,10 +1006,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;A点击IM入口&lt;/p&gt;</v>
+        <v>A点击IM入口</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;上拉显示IM列表，列表显示有B和C会话列表，未读消息数量显示正确&lt;/p&gt;</v>
+        <v>上拉显示IM列表，列表显示有B和C会话列表，未读消息数量显示正确</v>
       </c>
     </row>
     <row r="6">
@@ -1045,10 +1017,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;点击列表页面右上角的关闭按钮，返回语音房页面&lt;/p&gt;</v>
+        <v>点击列表页面右上角的关闭按钮，返回语音房页面</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;IM入口还是显示红色未读消息，头像消失，显示为原icon&lt;/p&gt;</v>
+        <v>IM入口还是显示红色未读消息，头像消失，显示为原icon</v>
       </c>
     </row>
     <row r="7">
@@ -1056,10 +1028,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;A进入会话列表点击有未读消息的列表，返回语音房&lt;/p&gt;</v>
+        <v>A进入会话列表点击有未读消息的列表，返回语音房</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;IM入口不显示红色未读消息&lt;/p&gt;</v>
+        <v>IM入口不显示红色未读消息</v>
       </c>
     </row>
     <row r="8"/>
@@ -1067,20 +1039,18 @@
       <c r="A9" t="str">
         <v>登录后才显示红点</v>
       </c>
-      <c r="B9" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B9" t="str"/>
       <c r="C9" t="str">
-        <v>&lt;p&gt;A登录APP然后退出登录&lt;/p&gt;</v>
+        <v>A登录APP然后退出登录</v>
       </c>
       <c r="D9" t="str">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;B给A发消息，A登录后检查语音房的IM入口&lt;/p&gt;</v>
+        <v>B给A发消息，A登录后检查语音房的IM入口</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;入口上有1条未读消息数量显示，并且入口上显示B的头像&lt;/p&gt;</v>
+        <v>入口上有1条未读消息数量显示，并且入口上显示B的头像</v>
       </c>
     </row>
     <row r="10">
@@ -1088,10 +1058,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;A点击IM入口&lt;/p&gt;</v>
+        <v>A点击IM入口</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;上拉显示IM列表，列表显示有B会话列表，未读消息数量显示正确&lt;/p&gt;</v>
+        <v>上拉显示IM列表，列表显示有B会话列表，未读消息数量显示正确</v>
       </c>
     </row>
     <row r="11"/>
@@ -1099,24 +1069,22 @@
       <c r="A12" t="str">
         <v>语音房IM列表检查</v>
       </c>
-      <c r="B12" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B12" t="str"/>
       <c r="C12" t="str">
-        <v>&lt;p&gt;有多人给A发过IM消息&lt;/p&gt;</v>
+        <v>有多人给A发过IM消息</v>
       </c>
       <c r="D12" t="str">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;A进入语音房点击IM入口，检查IM列表&lt;/p&gt;</v>
+        <v>A进入语音房点击IM入口，检查IM列表</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;a) Title显示“消息”文案，右侧显示关闭按钮
+        <v>a) Title显示“消息”文案，右侧显示关闭按钮
 b) 显示头像、昵称、最新一句消息内容
 c) 消息右侧显示最新一句消息的发送时间
 d) 如果有多条消息，则会话列表右侧显示数字
-e）列表页面显示所有和这个房主发过IM消息的会话列表&lt;/p&gt;</v>
+e）列表页面显示所有和这个房主发过IM消息的会话列表</v>
       </c>
     </row>
     <row r="13">
@@ -1124,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;点击某一条消息&lt;/p&gt;</v>
+        <v>点击某一条消息</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;进入到和该用户的会话详情页&lt;/p&gt;</v>
+        <v>进入到和该用户的会话详情页</v>
       </c>
     </row>
     <row r="14">
@@ -1135,10 +1103,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;在会话列表页面，新用户给A发IM消息，检查IM列表&lt;/p&gt;</v>
+        <v>在会话列表页面，新用户给A发IM消息，检查IM列表</v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;列表第一个显示最新用户给A发IM消息的会话列表&lt;/p&gt;</v>
+        <v>列表第一个显示最新用户给A发IM消息的会话列表</v>
       </c>
     </row>
     <row r="15">
@@ -1146,10 +1114,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;点击右侧关闭按钮&lt;/p&gt;</v>
+        <v>点击右侧关闭按钮</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;IM消息列表向下隐藏&lt;/p&gt;</v>
+        <v>IM消息列表向下隐藏</v>
       </c>
     </row>
     <row r="16"/>
@@ -1157,20 +1125,16 @@
       <c r="A17" t="str">
         <v>语音房内的IM列表和外部IM一样</v>
       </c>
-      <c r="B17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B17" t="str"/>
+      <c r="C17" t="str"/>
       <c r="D17" t="str">
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;检查从语音房内的IM入口进入显示IM列表和从语音房首页右上角入口进入的IM列表&lt;/p&gt;</v>
+        <v>检查从语音房内的IM入口进入显示IM列表和从语音房首页右上角入口进入的IM列表</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;两个页面显示的IM列表一样&lt;/p&gt;</v>
+        <v>两个页面显示的IM列表一样</v>
       </c>
     </row>
     <row r="18">
@@ -1178,10 +1142,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;有一个用户给该房主发IM消息，检查两个页面的IM列表显示&lt;/p&gt;</v>
+        <v>有一个用户给该房主发IM消息，检查两个页面的IM列表显示</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;两个页面显示的IM列表一样，并且IM内容一样&lt;/p&gt;</v>
+        <v>两个页面显示的IM列表一样，并且IM内容一样</v>
       </c>
     </row>
     <row r="19"/>
@@ -1189,23 +1153,21 @@
       <c r="A20" t="str">
         <v>会话详情页检查</v>
       </c>
-      <c r="B20" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B20" t="str"/>
       <c r="C20" t="str">
-        <v>&lt;p&gt;A没有关注B&lt;/p&gt;</v>
+        <v>A没有关注B</v>
       </c>
       <c r="D20" t="str">
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;
-	A通过语音房的IM入口进入和B的会话详情页&lt;/p&gt;
+        <v>
+	A通过语音房的IM入口进入和B的会话详情页
 </v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;
-	a) 顶部显示返回按钮、B的用户昵称、关注按钮 b) 顶部右侧继续显示关闭按钮 c）左边气泡显示对方消息，右边气泡显示我方消息&lt;/p&gt;
+        <v>
+	a) 顶部显示返回按钮、B的用户昵称、关注按钮 b) 顶部右侧继续显示关闭按钮 c）左边气泡显示对方消息，右边气泡显示我方消息
 </v>
       </c>
     </row>
@@ -1214,10 +1176,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;B分别给A发文字、电话号码、链接&lt;/p&gt;</v>
+        <v>B分别给A发文字、电话号码、链接</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;A接收成功，内容正确，电话号码和链接会蓝色字体和下划线显示&lt;/p&gt;</v>
+        <v>A接收成功，内容正确，电话号码和链接会蓝色字体和下划线显示</v>
       </c>
     </row>
     <row r="22">
@@ -1225,10 +1187,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;A给B发消息&lt;/p&gt;</v>
+        <v>A给B发消息</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;B接收成功&lt;/p&gt;</v>
+        <v>B接收成功</v>
       </c>
     </row>
     <row r="23">
@@ -1236,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;点击输入框上方空白处，则隐藏键盘&lt;/p&gt;</v>
+        <v>点击输入框上方空白处，则隐藏键盘</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;显示更多消息记录&lt;/p&gt;</v>
+        <v>显示更多消息记录</v>
       </c>
     </row>
     <row r="24">
@@ -1247,13 +1209,13 @@
         <v>5</v>
       </c>
       <c r="E24" t="str">
-        <v>&lt;p&gt;
-	分别点击顶部的用户昵称&lt;/p&gt;
+        <v>
+	分别点击顶部的用户昵称
 </v>
       </c>
       <c r="F24" t="str">
-        <v>&lt;p&gt;
-	跳转至该用户的个人资料页&lt;/p&gt;
+        <v>
+	跳转至该用户的个人资料页
 </v>
       </c>
     </row>
@@ -1262,10 +1224,10 @@
         <v>6</v>
       </c>
       <c r="E25" t="str">
-        <v>&lt;p&gt;点击关闭按钮&lt;/p&gt;</v>
+        <v>点击关闭按钮</v>
       </c>
       <c r="F25" t="str">
-        <v>&lt;p&gt;则向下隐藏本浮层&lt;/p&gt;</v>
+        <v>则向下隐藏本浮层</v>
       </c>
     </row>
     <row r="26">
@@ -1273,10 +1235,10 @@
         <v>7</v>
       </c>
       <c r="E26" t="str">
-        <v>&lt;p&gt;接&lt;br&gt;1，点击返回按钮&lt;/p&gt;</v>
+        <v>接1，点击返回按钮</v>
       </c>
       <c r="F26" t="str">
-        <v>&lt;p&gt;回会话列表页面&lt;/p&gt;</v>
+        <v>回会话列表页面</v>
       </c>
     </row>
     <row r="27"/>
@@ -1284,20 +1246,18 @@
       <c r="A28" t="str">
         <v>修改头像后检查语音房的会话列表</v>
       </c>
-      <c r="B28" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B28" t="str"/>
       <c r="C28" t="str">
-        <v>&lt;p&gt;B给A发过IM消息&lt;/p&gt;</v>
+        <v>B给A发过IM消息</v>
       </c>
       <c r="D28" t="str">
         <v>1</v>
       </c>
       <c r="E28" t="str">
-        <v>&lt;p&gt;A进入语音房的会话列表，然后B修改头像和昵称，A检查和B的会话列表&lt;/p&gt;</v>
+        <v>A进入语音房的会话列表，然后B修改头像和昵称，A检查和B的会话列表</v>
       </c>
       <c r="F28" t="str">
-        <v>&lt;p&gt;头像和昵称还没有更新为最新的&lt;/p&gt;</v>
+        <v>头像和昵称还没有更新为最新的</v>
       </c>
     </row>
     <row r="29">
@@ -1305,10 +1265,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;A进入和B的会话详情页&lt;/p&gt;</v>
+        <v>A进入和B的会话详情页</v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;B的头像和昵称更新为最新的&lt;/p&gt;</v>
+        <v>B的头像和昵称更新为最新的</v>
       </c>
     </row>
     <row r="30">
@@ -1316,10 +1276,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;返回会话列表页&lt;/p&gt;</v>
+        <v>返回会话列表页</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;B的头像和昵称更新为最新的&lt;/p&gt;</v>
+        <v>B的头像和昵称更新为最新的</v>
       </c>
     </row>
     <row r="31"/>
@@ -1327,20 +1287,16 @@
       <c r="A32" t="str">
         <v>删除某一消息列表</v>
       </c>
-      <c r="B32" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C32" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B32" t="str"/>
+      <c r="C32" t="str"/>
       <c r="D32" t="str">
         <v>1</v>
       </c>
       <c r="E32" t="str">
-        <v>&lt;p&gt;用户A通过语音房的IM入口进入消息列表页，有别的用户发送的消息列表，A长按一个列表&lt;/p&gt;</v>
+        <v>用户A通过语音房的IM入口进入消息列表页，有别的用户发送的消息列表，A长按一个列表</v>
       </c>
       <c r="F32" t="str">
-        <v>&lt;p&gt;显示删除弹窗&lt;/p&gt;</v>
+        <v>显示删除弹窗</v>
       </c>
     </row>
     <row r="33">
@@ -1348,10 +1304,10 @@
         <v>2</v>
       </c>
       <c r="E33" t="str">
-        <v>&lt;p&gt;点击取消&lt;/p&gt;</v>
+        <v>点击取消</v>
       </c>
       <c r="F33" t="str">
-        <v>&lt;p&gt;消息列表没有被删除&lt;/p&gt;</v>
+        <v>消息列表没有被删除</v>
       </c>
     </row>
     <row r="34">
@@ -1359,10 +1315,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;接&lt;br&gt;1，点击“删除该聊天”&lt;/p&gt;</v>
+        <v>接1，点击“删除该聊天”</v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;删除与该用户的当前会话列表，其他列表显示正常&lt;/p&gt;</v>
+        <v>删除与该用户的当前会话列表，其他列表显示正常</v>
       </c>
     </row>
     <row r="35">
@@ -1370,10 +1326,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>&lt;p&gt;A返回其他页面再次进入会话列表页面&lt;/p&gt;</v>
+        <v>A返回其他页面再次进入会话列表页面</v>
       </c>
       <c r="F35" t="str">
-        <v>&lt;p&gt;不显示步骤2删除的会话列表&lt;/p&gt;</v>
+        <v>不显示步骤2删除的会话列表</v>
       </c>
     </row>
   </sheetData>
@@ -1412,19 +1368,19 @@
         <v>排麦列表-首位无需置顶</v>
       </c>
       <c r="B2" t="str">
-        <v>&lt;p&gt;排麦列表上需判断当前用户位置，第一位的用户无需【置顶】按钮&lt;/p&gt;</v>
+        <v>排麦列表上需判断当前用户位置，第一位的用户无需【置顶】按钮</v>
       </c>
       <c r="C2" t="str">
-        <v>&lt;p&gt;当前麦位已满&lt;/p&gt;</v>
+        <v>当前麦位已满</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;麦下用户A点击申请排麦，房主查看&lt;/p&gt;</v>
+        <v>麦下用户A点击申请排麦，房主查看</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;排麦列表只有一个用户，没有置顶按钮&lt;/p&gt;</v>
+        <v>排麦列表只有一个用户，没有置顶按钮</v>
       </c>
     </row>
     <row r="3">
@@ -1432,10 +1388,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，麦下用户B点击申请排麦，房主查看&lt;/p&gt;</v>
+        <v>接步骤1，麦下用户B点击申请排麦，房主查看</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;排麦列表显示用户A和用户B,只有用户B有置顶按钮，用户A不显示置顶按钮&lt;/p&gt;</v>
+        <v>排麦列表显示用户A和用户B,只有用户B有置顶按钮，用户A不显示置顶按钮</v>
       </c>
     </row>
     <row r="4">
@@ -1443,10 +1399,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;房主点击置顶按钮&lt;/p&gt;</v>
+        <v>房主点击置顶按钮</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;排麦列表从上到下显示用户B\用户A，只有用户A有置顶按钮，用户B不显示置顶按钮&lt;/p&gt;</v>
+        <v>排麦列表从上到下显示用户B\用户A，只有用户A有置顶按钮，用户B不显示置顶按钮</v>
       </c>
     </row>
     <row r="5">
@@ -1454,11 +1410,11 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;此时出现空座位&lt;/p&gt;</v>
+        <v>此时出现空座位</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.用户B上座到位置上
-&lt;br&gt;2.房主查看排麦列表，只有用户A，不显示置顶按钮&lt;/p&gt;</v>
+        <v>1.用户B上座到位置上
+2.房主查看排麦列表，只有用户A，不显示置顶按钮</v>
       </c>
     </row>
     <row r="6"/>
@@ -1467,19 +1423,17 @@
         <v>公屏字数上限调整</v>
       </c>
       <c r="B7" t="str">
-        <v>&lt;p&gt;公屏上显示的公告字数改成200字（原来是80字）&lt;/p&gt;</v>
-      </c>
-      <c r="C7" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+        <v>公屏上显示的公告字数改成200字（原来是80字）</v>
+      </c>
+      <c r="C7" t="str"/>
       <c r="D7" t="str">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;房主修改公告，超过200个字，查看公屏&lt;/p&gt;</v>
+        <v>房主修改公告，超过200个字，查看公屏</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;公屏显示公告的前200个字+【更多详情请点击查看】&lt;/p&gt;</v>
+        <v>公屏显示公告的前200个字+【更多详情请点击查看】</v>
       </c>
     </row>
     <row r="8">
@@ -1487,10 +1441,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;点击【更多详情请点击查看】&lt;/p&gt;</v>
+        <v>点击【更多详情请点击查看】</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;展开公告半屏面板，显示完整的公告内容&lt;/p&gt;</v>
+        <v>展开公告半屏面板，显示完整的公告内容</v>
       </c>
     </row>
     <row r="9">
@@ -1498,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;房主修改公告，少于200个字，大于80个字，查看公屏&lt;/p&gt;</v>
+        <v>房主修改公告，少于200个字，大于80个字，查看公屏</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;公屏完整显示公告的内容&lt;/p&gt;</v>
+        <v>公屏完整显示公告的内容</v>
       </c>
     </row>
     <row r="10"/>
@@ -1509,20 +1463,16 @@
       <c r="A11" t="str">
         <v>房主麦位优化</v>
       </c>
-      <c r="B11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B11" t="str"/>
+      <c r="C11" t="str"/>
       <c r="D11" t="str">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;房主离开语音房，房间内的用户查看&lt;/p&gt;</v>
+        <v>房主离开语音房，房间内的用户查看</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;保持房主在麦上状态，并增加离开状态标志&lt;/p&gt;</v>
+        <v>保持房主在麦上状态，并增加离开状态标志</v>
       </c>
     </row>
     <row r="12">
@@ -1530,10 +1480,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;用户点房主麦位&lt;/p&gt;</v>
+        <v>用户点房主麦位</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;拉起房主资料卡&lt;/p&gt;</v>
+        <v>拉起房主资料卡</v>
       </c>
     </row>
     <row r="13">
@@ -1541,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;房主回到语音房内&lt;/p&gt;</v>
+        <v>房主回到语音房内</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;房主麦上的离开状态消失，点击拉起房主资料卡&lt;/p&gt;</v>
+        <v>房主麦上的离开状态消失，点击拉起房主资料卡</v>
       </c>
     </row>
     <row r="14"/>
@@ -1552,28 +1502,24 @@
       <c r="A15" t="str">
         <v>语音房-房间主界面UI</v>
       </c>
-      <c r="B15" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C15" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B15" t="str"/>
+      <c r="C15" t="str"/>
       <c r="D15" t="str">
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;
-	房主进入语音房查看&lt;/p&gt;
+        <v>
+	房主进入语音房查看
 </v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;
-	房间主界面元素包括：（以设计稿为准）&lt;br /&gt;
-	1.顶部左上角返回按钮+房间名称、房间id、在线人数，右上角更多操作&lt;br /&gt;
-	2.房主默认上麦，显示房主头像、房主标识、房主昵称、公告、榜单入口（本期不做，预留入口）&lt;br /&gt;
-	3.坐席：除房主外共8个坐席，1麦为主持，样式上区别于其他7个麦&lt;br /&gt;
-	4.公屏（首次进入房间时在公屏上显示安全提示文案，如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。）、活动条（后台配置）&lt;br /&gt;
-	5.底部操作栏：发言、麦克风、放声、礼物按钮&lt;/p&gt;
+        <v>
+	房间主界面元素包括：（以设计稿为准）
+	1.顶部左上角返回按钮+房间名称、房间id、在线人数，右上角更多操作
+	2.房主默认上麦，显示房主头像、房主标识、房主昵称、公告、榜单入口（本期不做，预留入口）
+	3.坐席：除房主外共8个坐席，1麦为主持，样式上区别于其他7个麦
+	4.公屏（首次进入房间时在公屏上显示安全提示文案，如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。）、活动条（后台配置）
+	5.底部操作栏：发言、麦克风、放声、礼物按钮
 </v>
       </c>
     </row>
@@ -1582,10 +1528,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;房主点击右上角…按钮&lt;/p&gt;</v>
+        <v>房主点击右上角…按钮</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;显示选项卡：管理列表、房间加锁、编辑公告、编辑房间名、退出房间&lt;/p&gt;</v>
+        <v>显示选项卡：管理列表、房间加锁、编辑公告、编辑房间名、退出房间</v>
       </c>
     </row>
     <row r="17">
@@ -1593,18 +1539,18 @@
         <v>3</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;
-	其他用户进入语音房查看&lt;/p&gt;
+        <v>
+	其他用户进入语音房查看
 </v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;
-	房间主界面元素包括：（以设计稿为准）&lt;br /&gt;
-	1.顶部左上角返回按钮+房间名称、房间id、在线人数，右上角关注按钮、更多操作按钮&lt;br /&gt;
-	2.房主默认上麦，显示房主头像、房主标识、房主昵称、公告、榜单入口（本期不做，预留入口）&lt;br /&gt;
-	3.坐席：除房主外共8个坐席，1麦为主持，样式上区别于其他7个麦&lt;br /&gt;
-	4.公屏（首次进入房间时在公屏上显示安全提示文案，如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。）、活动条（后台配置）&lt;br /&gt;
-	5.底部操作栏：发言、麦克风（没有上麦不显示）、放声、礼物按钮&lt;/p&gt;
+        <v>
+	房间主界面元素包括：（以设计稿为准）
+	1.顶部左上角返回按钮+房间名称、房间id、在线人数，右上角关注按钮、更多操作按钮
+	2.房主默认上麦，显示房主头像、房主标识、房主昵称、公告、榜单入口（本期不做，预留入口）
+	3.坐席：除房主外共8个坐席，1麦为主持，样式上区别于其他7个麦
+	4.公屏（首次进入房间时在公屏上显示安全提示文案，如下：追读官方提示：请自觉遵守直播间规则，任何传播违法、违规、低俗、暴力等不良信息的行为将会封停帐号。）、活动条（后台配置）
+	5.底部操作栏：发言、麦克风（没有上麦不显示）、放声、礼物按钮
 </v>
       </c>
     </row>
@@ -1613,14 +1559,14 @@
         <v>4</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	1、3，分别退出房间重进查看&lt;/p&gt;
+        <v>
+	接步骤
+	1、3，分别退出房间重进查看
 </v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;
-	界面同上每次进入都显示安全提示文案&lt;/p&gt;
+        <v>
+	界面同上每次进入都显示安全提示文案
 </v>
       </c>
     </row>
@@ -1629,23 +1575,19 @@
       <c r="A20" t="str">
         <v>语音房-房间信息</v>
       </c>
-      <c r="B20" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C20" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B20" t="str"/>
+      <c r="C20" t="str"/>
       <c r="D20" t="str">
         <v>1</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;房主首次进入查看语音房左上角&lt;/p&gt;</v>
+        <v>房主首次进入查看语音房左上角</v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;显示房间信息：
-&lt;br&gt;1.房间名称为房间开设时设置的名称
-&lt;br&gt;2.房间id（唯一标识码）
-&lt;br&gt;3.在线人数&lt;/p&gt;</v>
+        <v>显示房间信息：
+1.房间名称为房间开设时设置的名称
+2.房间id（唯一标识码）
+3.在线人数</v>
       </c>
     </row>
     <row r="21">
@@ -1653,10 +1595,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;退出房间/重启应用后进入同一房间查看&lt;/p&gt;</v>
+        <v>退出房间/重启应用后进入同一房间查看</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;同上，房间id不变&lt;/p&gt;</v>
+        <v>同上，房间id不变</v>
       </c>
     </row>
     <row r="22">
@@ -1664,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;切换到其他房间查看房间信息&lt;/p&gt;</v>
+        <v>切换到其他房间查看房间信息</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;显示该房间对应的房间名称、id和在线人数&lt;/p&gt;</v>
+        <v>显示该房间对应的房间名称、id和在线人数</v>
       </c>
     </row>
     <row r="23"/>
@@ -1677,20 +1619,20 @@
       </c>
       <c r="B24" t="str"/>
       <c r="C24" t="str">
-        <v>&lt;p&gt;
-	房间内有房主、管理员、麦上用户、观众&lt;/p&gt;
+        <v>
+	房间内有房主、管理员、麦上用户、观众
 </v>
       </c>
       <c r="D24" t="str">
         <v>1</v>
       </c>
       <c r="E24" t="str">
-        <v>&lt;p&gt;不同身份用户分别点击语音房在线人数入口&lt;/p&gt;</v>
+        <v>不同身份用户分别点击语音房在线人数入口</v>
       </c>
       <c r="F24" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.跳转在线列表：左上角返回按钮、标题：在线列表（在线人数），列表显示在线用户头像、昵称、性别
-&lt;br&gt;2.显示用户排序优先级：房主&gt;管理&gt;麦上用户&gt;观众
-&lt;br&gt;3.房主、管理、上麦用户均在昵称前带有标识&lt;/p&gt;</v>
+        <v>1.跳转在线列表：左上角返回按钮、标题：在线列表（在线人数），列表显示在线用户头像、昵称、性别
+2.显示用户排序优先级：房主&gt;管理&gt;麦上用户&gt;观众
+3.房主、管理、上麦用户均在昵称前带有标识</v>
       </c>
     </row>
     <row r="25">
@@ -1698,10 +1640,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="str">
-        <v>&lt;p&gt;此时有其他用户A进入语音房，重进在线列表查看&lt;/p&gt;</v>
+        <v>此时有其他用户A进入语音房，重进在线列表查看</v>
       </c>
       <c r="F25" t="str">
-        <v>&lt;p&gt;用户A显示在管理下方，同层级身份之前随机排序&lt;/p&gt;</v>
+        <v>用户A显示在管理下方，同层级身份之前随机排序</v>
       </c>
     </row>
     <row r="26">
@@ -1709,10 +1651,10 @@
         <v>3</v>
       </c>
       <c r="E26" t="str">
-        <v>&lt;p&gt;房主将用户A设为管理员，重进在线列表列表&lt;/p&gt;</v>
+        <v>房主将用户A设为管理员，重进在线列表列表</v>
       </c>
       <c r="F26" t="str">
-        <v>&lt;p&gt;用户A优先观众显示，同层级身份之前随机排序&lt;/p&gt;</v>
+        <v>用户A优先观众显示，同层级身份之前随机排序</v>
       </c>
     </row>
     <row r="27"/>
@@ -1720,23 +1662,21 @@
       <c r="A28" t="str">
         <v>语音房-更多操作</v>
       </c>
-      <c r="B28" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B28" t="str"/>
       <c r="C28" t="str">
-        <v>&lt;p&gt;语音房&lt;/p&gt;</v>
+        <v>语音房</v>
       </c>
       <c r="D28" t="str">
         <v>1</v>
       </c>
       <c r="E28" t="str">
-        <v>&lt;p&gt;
-	房主点击右上角&amp;hellip;按钮&lt;/p&gt;
+        <v>
+	房主点击右上角按钮
 </v>
       </c>
       <c r="F28" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：管理列表、房间加锁、编辑公告、编辑房间名、退出房间&lt;/p&gt;
+        <v>
+	显示选项卡：管理列表、房间加锁、编辑公告、编辑房间名、退出房间
 </v>
       </c>
     </row>
@@ -1745,15 +1685,14 @@
         <v>2</v>
       </c>
       <c r="E29" t="str">
-        <v>&lt;p&gt;
-	管理员点击右上角&amp;hellip;按钮&lt;/p&gt;
+        <v>
+	管理员点击右上角按钮
 </v>
       </c>
       <c r="F29" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：房间加锁、举报房间、退出房间&lt;/p&gt;
-&lt;p&gt;
-	备注：ios没有房间加锁&lt;/p&gt;
+        <v>
+	显示选项卡：房间加锁、举报房间、退出房间
+	备注：ios没有房间加锁
 </v>
       </c>
     </row>
@@ -1762,10 +1701,10 @@
         <v>3</v>
       </c>
       <c r="E30" t="str">
-        <v>&lt;p&gt;麦上用户和麦下观众点击右上角…按钮&lt;/p&gt;</v>
+        <v>麦上用户和麦下观众点击右上角…按钮</v>
       </c>
       <c r="F30" t="str">
-        <v>&lt;p&gt;显示选项卡：举报和退出房间入口&lt;/p&gt;</v>
+        <v>显示选项卡：举报和退出房间入口</v>
       </c>
     </row>
     <row r="31">
@@ -1773,10 +1712,10 @@
         <v>4</v>
       </c>
       <c r="E31" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1、&lt;br&gt;2、&lt;br&gt;3，房主/管理员/麦上用户/麦下观众分别点击退出房间按钮&lt;/p&gt;</v>
+        <v>接步骤1、2、3，房主/管理员/麦上用户/麦下观众分别点击退出房间按钮</v>
       </c>
       <c r="F31" t="str">
-        <v>&lt;p&gt;退出语音房，回到上一层页面&lt;/p&gt;</v>
+        <v>退出语音房，回到上一层页面</v>
       </c>
     </row>
     <row r="32"/>
@@ -1790,10 +1729,10 @@
         <v>1</v>
       </c>
       <c r="E33" t="str">
-        <v>&lt;p&gt;普通用户点击房间右上角…按钮，选择举报房间&lt;/p&gt;</v>
+        <v>普通用户点击房间右上角…按钮，选择举报房间</v>
       </c>
       <c r="F33" t="str">
-        <v>&lt;p&gt;展开举报具体项，包括：广告、色情、骚扰、违法、未成年直播、声音违规、其他、取消&lt;/p&gt;</v>
+        <v>展开举报具体项，包括：广告、色情、骚扰、违法、未成年直播、声音违规、其他、取消</v>
       </c>
     </row>
     <row r="34">
@@ -1801,10 +1740,10 @@
         <v>2</v>
       </c>
       <c r="E34" t="str">
-        <v>&lt;p&gt;选择任意一项提交举报&lt;/p&gt;</v>
+        <v>选择任意一项提交举报</v>
       </c>
       <c r="F34" t="str">
-        <v>&lt;p&gt;举报成功并有toast提示&lt;/p&gt;</v>
+        <v>举报成功并有toast提示</v>
       </c>
     </row>
     <row r="35">
@@ -1812,10 +1751,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，点击取消按钮&lt;/p&gt;</v>
+        <v>接步骤1，点击取消按钮</v>
       </c>
       <c r="F35" t="str">
-        <v>&lt;p&gt;取消举报，关闭选项卡&lt;/p&gt;</v>
+        <v>取消举报，关闭选项卡</v>
       </c>
     </row>
     <row r="36"/>
@@ -1829,17 +1768,15 @@
         <v>1</v>
       </c>
       <c r="E37" t="str">
-        <v>&lt;p&gt;
-	房主设置一个管理后，查看管理列表&lt;/p&gt;
+        <v>
+	房主设置一个管理后，查看管理列表
 </v>
       </c>
       <c r="F37" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.显示管理员列表：管理员用户头像、昵称、性别、右侧是【撤销】按钮&lt;br /&gt;
-	&lt;span style="color:#ffffff;"&gt;2.该用户昵称前带有管理标识&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	ios:显示撤销管理&lt;/p&gt;
+        <v>
+	1.显示管理员列表：管理员用户头像、昵称、性别、右侧是【撤销】按钮
+	2.该用户昵称前带有管理标识
+	ios:显示撤销管理
 </v>
       </c>
     </row>
@@ -1848,10 +1785,10 @@
         <v>2</v>
       </c>
       <c r="E38" t="str">
-        <v>&lt;p&gt;点击该用户右侧的【撤销】按钮&lt;/p&gt;</v>
+        <v>点击该用户右侧的【撤销】按钮</v>
       </c>
       <c r="F38" t="str">
-        <v>&lt;p&gt;出现二次确认弹窗，有再想想和确定取消按钮&lt;/p&gt;</v>
+        <v>出现二次确认弹窗，有再想想和确定取消按钮</v>
       </c>
     </row>
     <row r="39">
@@ -1859,10 +1796,10 @@
         <v>3</v>
       </c>
       <c r="E39" t="str">
-        <v>&lt;p&gt;弹窗上点击【再想想】&lt;/p&gt;</v>
+        <v>弹窗上点击【再想想】</v>
       </c>
       <c r="F39" t="str">
-        <v>&lt;p&gt;关闭弹窗不撤销该管理员&lt;/p&gt;</v>
+        <v>关闭弹窗不撤销该管理员</v>
       </c>
     </row>
     <row r="40">
@@ -1870,11 +1807,11 @@
         <v>4</v>
       </c>
       <c r="E40" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;2，点击【确定取消】&lt;/p&gt;</v>
+        <v>接步骤2，点击【确定取消】</v>
       </c>
       <c r="F40" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.toast提示“取消成功”并取消该用户管理身份
-&lt;br&gt;2.右侧按钮变更为【设为管理】&lt;/p&gt;</v>
+        <v>1.toast提示“取消成功”并取消该用户管理身份
+2.右侧按钮变更为【设为管理】</v>
       </c>
     </row>
     <row r="41">
@@ -1882,10 +1819,10 @@
         <v>5</v>
       </c>
       <c r="E41" t="str">
-        <v>&lt;p&gt;房主返回重进管理列表&lt;/p&gt;</v>
+        <v>房主返回重进管理列表</v>
       </c>
       <c r="F41" t="str">
-        <v>&lt;p&gt;显示没有数据的底图&lt;/p&gt;</v>
+        <v>显示没有数据的底图</v>
       </c>
     </row>
     <row r="42"/>
@@ -1899,10 +1836,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="str">
-        <v>&lt;p&gt;房主进入语音房查看&lt;/p&gt;</v>
+        <v>房主进入语音房查看</v>
       </c>
       <c r="F43" t="str">
-        <v>&lt;p&gt;默认上麦，显示：房主头像、昵称、房主昵称前带有房主标识（性别男显示蓝色，女显示红色）&lt;/p&gt;</v>
+        <v>默认上麦，显示：房主头像、昵称、房主昵称前带有房主标识（性别男显示蓝色，女显示红色）</v>
       </c>
     </row>
     <row r="44">
@@ -1910,10 +1847,10 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <v>&lt;p&gt;其他用户进入语音房查看房主麦位&lt;/p&gt;</v>
+        <v>其他用户进入语音房查看房主麦位</v>
       </c>
       <c r="F44" t="str">
-        <v>&lt;p&gt;房主显示房主头像、昵称、关注按钮、房主昵称前带有房主标识（性别男显示蓝色，女显示红色）&lt;/p&gt;</v>
+        <v>房主显示房主头像、昵称、关注按钮、房主昵称前带有房主标识（性别男显示蓝色，女显示红色）</v>
       </c>
     </row>
     <row r="45">
@@ -1921,10 +1858,10 @@
         <v>3</v>
       </c>
       <c r="E45" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;2，点击关注按钮&lt;/p&gt;</v>
+        <v>接步骤2，点击关注按钮</v>
       </c>
       <c r="F45" t="str">
-        <v>&lt;p&gt;toast提示关注成功房主成功，关注按钮不显示&lt;/p&gt;</v>
+        <v>toast提示关注成功房主成功，关注按钮不显示</v>
       </c>
     </row>
     <row r="46"/>
@@ -1932,23 +1869,19 @@
       <c r="A47" t="str">
         <v>语音房-房间加锁</v>
       </c>
-      <c r="B47" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C47" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B47" t="str"/>
+      <c r="C47" t="str"/>
       <c r="D47" t="str">
         <v>1</v>
       </c>
       <c r="E47" t="str">
-        <v>&lt;p&gt;
-	房主点击右上角&amp;hellip;按钮，选择房间加锁&lt;/p&gt;
+        <v>
+	房主点击右上角按钮，选择房间加锁
 </v>
       </c>
       <c r="F47" t="str">
-        <v>&lt;p&gt;
-	弹出加锁弹框：4&lt;span style="color:#ffffff;"&gt;6&lt;/span&gt;位数字输入框和保存按钮&lt;/p&gt;
+        <v>
+	弹出加锁弹框：46位数字输入框和保存按钮
 </v>
       </c>
     </row>
@@ -1957,13 +1890,13 @@
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <v>&lt;p&gt;
-	输入4&lt;span style="color:#ffffff;"&gt;6&lt;/span&gt;位数字，点击保存&lt;/p&gt;
+        <v>
+	输入46位数字，点击保存
 </v>
       </c>
       <c r="F48" t="str">
-        <v>&lt;p&gt;
-	可以设置成功&lt;/p&gt;
+        <v>
+	可以设置成功
 </v>
       </c>
     </row>
@@ -1972,10 +1905,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="str">
-        <v>&lt;p&gt;此时有其他用户进入该语音房&lt;/p&gt;</v>
+        <v>此时有其他用户进入该语音房</v>
       </c>
       <c r="F49" t="str">
-        <v>&lt;p&gt;弹出密码输入窗口并提示：当前房间为加密房间，请输入密码，有取消和提交按钮&lt;/p&gt;</v>
+        <v>弹出密码输入窗口并提示：当前房间为加密房间，请输入密码，有取消和提交按钮</v>
       </c>
     </row>
     <row r="50">
@@ -1983,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="E50" t="str">
-        <v>&lt;p&gt;输入正确的6位数字密码提交提交&lt;/p&gt;</v>
+        <v>输入正确的6位数字密码提交提交</v>
       </c>
       <c r="F50" t="str">
-        <v>&lt;p&gt;校验成功toast提示“密码正确，正在进入房间”，并进入相应房间&lt;/p&gt;</v>
+        <v>校验成功toast提示“密码正确，正在进入房间”，并进入相应房间</v>
       </c>
     </row>
     <row r="51"/>
@@ -1994,20 +1927,16 @@
       <c r="A52" t="str">
         <v>语音房-公告</v>
       </c>
-      <c r="B52" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C52" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B52" t="str"/>
+      <c r="C52" t="str"/>
       <c r="D52" t="str">
         <v>1</v>
       </c>
       <c r="E52" t="str">
-        <v>&lt;p&gt;未设置过公告，房主及其他用户查看房主昵称下方&lt;/p&gt;</v>
+        <v>未设置过公告，房主及其他用户查看房主昵称下方</v>
       </c>
       <c r="F52" t="str">
-        <v>&lt;p&gt;显示：暂无公告&lt;/p&gt;</v>
+        <v>显示：暂无公告</v>
       </c>
     </row>
     <row r="53">
@@ -2015,10 +1944,10 @@
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，管理员、普通观众点击公告区域&lt;/p&gt;</v>
+        <v>接步骤1，管理员、普通观众点击公告区域</v>
       </c>
       <c r="F53" t="str">
-        <v>&lt;p&gt;点击无交互&lt;/p&gt;</v>
+        <v>点击无交互</v>
       </c>
     </row>
     <row r="54">
@@ -2026,15 +1955,14 @@
         <v>3</v>
       </c>
       <c r="E54" t="str">
-        <v>&lt;p&gt;
-	房主点击公告区域&lt;/p&gt;
+        <v>
+	房主点击公告区域
 </v>
       </c>
       <c r="F54" t="str">
-        <v>&lt;p&gt;
-	进入编辑公告弹窗界面&lt;/p&gt;
-&lt;p&gt;
-	ios：编辑框中默认显示文案：输入500字以内的公告标题&lt;/p&gt;
+        <v>
+	进入编辑公告弹窗界面
+	ios：编辑框中默认显示文案：输入500字以内的公告标题
 </v>
       </c>
     </row>
@@ -2043,11 +1971,11 @@
         <v>4</v>
       </c>
       <c r="E55" t="str">
-        <v>&lt;p&gt;设置公告内容后点击保存&lt;/p&gt;</v>
+        <v>设置公告内容后点击保存</v>
       </c>
       <c r="F55" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.提交成功
-&lt;br&gt;2.房间主页面，房主昵称下方显示公告的前10个字，超出…显示&lt;/p&gt;</v>
+        <v>1.提交成功
+2.房间主页面，房主昵称下方显示公告的前10个字，超出…显示</v>
       </c>
     </row>
     <row r="56">
@@ -2055,10 +1983,10 @@
         <v>5</v>
       </c>
       <c r="E56" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;4，管理员、普通观众查看公屏区域点击公告区域&lt;/p&gt;</v>
+        <v>接步骤4，管理员、普通观众查看公屏区域点击公告区域</v>
       </c>
       <c r="F56" t="str">
-        <v>&lt;p&gt;自动拉起公告弹窗，可完整查看公告详情&lt;/p&gt;</v>
+        <v>自动拉起公告弹窗，可完整查看公告详情</v>
       </c>
     </row>
     <row r="57">
@@ -2066,10 +1994,10 @@
         <v>6</v>
       </c>
       <c r="E57" t="str">
-        <v>&lt;p&gt;继步骤&lt;br&gt;5，关闭公告弹窗后再次点击公告区域&lt;/p&gt;</v>
+        <v>继步骤5，关闭公告弹窗后再次点击公告区域</v>
       </c>
       <c r="F57" t="str">
-        <v>&lt;p&gt;拉起公告弹窗&lt;/p&gt;</v>
+        <v>拉起公告弹窗</v>
       </c>
     </row>
     <row r="58"/>
@@ -2077,25 +2005,20 @@
       <c r="A59" t="str">
         <v>语音房-退出房间</v>
       </c>
-      <c r="B59" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C59" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B59" t="str"/>
+      <c r="C59" t="str"/>
       <c r="D59" t="str">
         <v>1</v>
       </c>
       <c r="E59" t="str">
-        <v>&lt;p&gt;
-	进入语音房，点击左上角的返回按钮&lt;/p&gt;
+        <v>
+	进入语音房，点击左上角的返回按钮
 </v>
       </c>
       <c r="F59" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	退出房间界面，回到上一层页面，语音房间显示最小化&lt;/p&gt;
+        <v>
+	弹出二次确认框：确定退出当前房间吗？有选择按钮：下次不再提醒
+	退出房间界面，回到上一层页面，语音房间显示最小化
 </v>
       </c>
     </row>
@@ -2104,13 +2027,13 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;点击取消&lt;/span&gt;&lt;/p&gt;
+        <v>
+	点击取消
 </v>
       </c>
       <c r="F60" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;关闭弹框，停留在房间内&lt;/span&gt;&lt;/p&gt;
+        <v>
+	关闭弹框，停留在房间内
 </v>
       </c>
     </row>
@@ -2119,16 +2042,15 @@
         <v>3</v>
       </c>
       <c r="E61" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;接步骤&lt;br /&gt;
-	1，未勾选&amp;ldquo;下次不再提醒&amp;quot;,点击确定&lt;/span&gt;&lt;/p&gt;
+        <v>
+	接步骤
+	1，未勾选下次不再提醒,点击确定
 </v>
       </c>
       <c r="F61" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="color:#ffffff;"&gt;1.直接退出房间&lt;br /&gt;
-	2.下一次从房间返回，仍然弹出提示框&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1.直接退出房间
+	2.下一次从房间返回，仍然弹出提示框
 </v>
       </c>
     </row>
@@ -2137,16 +2059,15 @@
         <v>4</v>
       </c>
       <c r="E62" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="color:#ffffff;"&gt;接步骤&lt;br /&gt;
-	1，勾选&amp;ldquo;下次不再提醒&amp;quot;,点击确定&lt;/span&gt;&lt;/p&gt;
+        <v>
+	接步骤
+	1，勾选下次不再提醒,点击确定
 </v>
       </c>
       <c r="F62" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="color:#ffffff;"&gt;1.直接退出房间&lt;br /&gt;
-	2.下一次从房间返回，不再弹出二次确认弹框&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1.直接退出房间
+	2.下一次从房间返回，不再弹出二次确认弹框
 </v>
       </c>
     </row>
@@ -2155,13 +2076,13 @@
         <v>5</v>
       </c>
       <c r="E63" t="str">
-        <v>&lt;p&gt;
-	继步骤1，点击最小化房间&lt;/p&gt;
+        <v>
+	继步骤1，点击最小化房间
 </v>
       </c>
       <c r="F63" t="str">
-        <v>&lt;p&gt;
-	可重新进入房间页面&lt;/p&gt;
+        <v>
+	可重新进入房间页面
 </v>
       </c>
     </row>
@@ -2170,13 +2091,13 @@
         <v>6</v>
       </c>
       <c r="E64" t="str">
-        <v>&lt;p&gt;
-	继步骤1，点击最小化房间上的关闭按钮&lt;/p&gt;
+        <v>
+	继步骤1，点击最小化房间上的关闭按钮
 </v>
       </c>
       <c r="F64" t="str">
-        <v>&lt;p&gt;
-	退出当前房间&lt;/p&gt;
+        <v>
+	退出当前房间
 </v>
       </c>
     </row>
@@ -2185,20 +2106,18 @@
       <c r="A66" t="str">
         <v>语音房-活动条</v>
       </c>
-      <c r="B66" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B66" t="str"/>
       <c r="C66" t="str">
-        <v>&lt;p&gt;后台配置语音房活动条&lt;/p&gt;</v>
+        <v>后台配置语音房活动条</v>
       </c>
       <c r="D66" t="str">
         <v>1</v>
       </c>
       <c r="E66" t="str">
-        <v>&lt;p&gt;进入对应语音房，查看语音房右下角&lt;/p&gt;</v>
+        <v>进入对应语音房，查看语音房右下角</v>
       </c>
       <c r="F66" t="str">
-        <v>&lt;p&gt;显示活动条入口，显示位置与公屏流水（发言、进场流水、送礼流水）不重叠、与底部操作栏不重叠&lt;/p&gt;</v>
+        <v>显示活动条入口，显示位置与公屏流水（发言、进场流水、送礼流水）不重叠、与底部操作栏不重叠</v>
       </c>
     </row>
     <row r="67">
@@ -2206,15 +2125,14 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <v>&lt;p&gt;
-	点击活动条&lt;/p&gt;
+        <v>
+	点击活动条
 </v>
       </c>
       <c r="F67" t="str">
-        <v>&lt;p&gt;
-	跳转到配置的web页面&lt;/p&gt;
-&lt;p&gt;
-	备注：不跳转，&lt;span style="font-size:15px;color:#ff0000;font-weight:normal;text-decoration:none;font-family:'Microsoft Yahei';font-style:normal;text-decoration-skip-ink:none;"&gt;交互需要H5内部处理,目前活动条地址是后台可配的&lt;/span&gt;&lt;/p&gt;
+        <v>
+	跳转到配置的web页面
+	备注：不跳转，交互需要H5内部处理,目前活动条地址是后台可配的
 </v>
       </c>
     </row>
@@ -2223,10 +2141,10 @@
         <v>3</v>
       </c>
       <c r="E68" t="str">
-        <v>&lt;p&gt;从web页面返回&lt;/p&gt;</v>
+        <v>从web页面返回</v>
       </c>
       <c r="F68" t="str">
-        <v>&lt;p&gt;关闭web页面，返回到语音房内&lt;/p&gt;</v>
+        <v>关闭web页面，返回到语音房内</v>
       </c>
     </row>
     <row r="69">
@@ -2234,10 +2152,10 @@
         <v>4</v>
       </c>
       <c r="E69" t="str">
-        <v>&lt;p&gt;退出当前房间，进入其他未配置活动的语音房&lt;/p&gt;</v>
+        <v>退出当前房间，进入其他未配置活动的语音房</v>
       </c>
       <c r="F69" t="str">
-        <v>&lt;p&gt;不显示语音房&lt;/p&gt;</v>
+        <v>不显示语音房</v>
       </c>
     </row>
     <row r="70"/>
@@ -2245,22 +2163,18 @@
       <c r="A71" t="str">
         <v>语音房-空座位（普通用户）</v>
       </c>
-      <c r="B71" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C71" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B71" t="str"/>
+      <c r="C71" t="str"/>
       <c r="D71" t="str">
         <v>1</v>
       </c>
       <c r="E71" t="str">
-        <v>&lt;p&gt;男性普通用户A点击空座位&lt;/p&gt;</v>
+        <v>男性普通用户A点击空座位</v>
       </c>
       <c r="F71" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.直接上麦到该座位上
-&lt;br&gt;2.座位上显示该用户头像、昵称和座位序号，座位序号显示蓝色
-3底部出现麦克风按钮&lt;/p&gt;</v>
+        <v>1.直接上麦到该座位上
+2.座位上显示该用户头像、昵称和座位序号，座位序号显示蓝色
+3底部出现麦克风按钮</v>
       </c>
     </row>
     <row r="72">
@@ -2268,12 +2182,12 @@
         <v>2</v>
       </c>
       <c r="E72" t="str">
-        <v>&lt;p&gt;女性普通用户B点击空座位&lt;/p&gt;</v>
+        <v>女性普通用户B点击空座位</v>
       </c>
       <c r="F72" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.直接上麦到该座位上
-&lt;br&gt;2.座位上显示该用户头像、昵称和座位序号，座位序号显示红色
-3底部出现麦克风按钮&lt;/p&gt;</v>
+        <v>1.直接上麦到该座位上
+2.座位上显示该用户头像、昵称和座位序号，座位序号显示红色
+3底部出现麦克风按钮</v>
       </c>
     </row>
     <row r="73">
@@ -2281,10 +2195,10 @@
         <v>3</v>
       </c>
       <c r="E73" t="str">
-        <v>&lt;p&gt;房主与麦上用户AB语音聊天&lt;/p&gt;</v>
+        <v>房主与麦上用户AB语音聊天</v>
       </c>
       <c r="F73" t="str">
-        <v>&lt;p&gt;均可正常听到对方的声音，声音清晰，没有卡顿和回音&lt;/p&gt;</v>
+        <v>均可正常听到对方的声音，声音清晰，没有卡顿和回音</v>
       </c>
     </row>
     <row r="74">
@@ -2292,11 +2206,11 @@
         <v>4</v>
       </c>
       <c r="E74" t="str">
-        <v>&lt;p&gt;用户AB分别点击自己的麦位&lt;/p&gt;</v>
+        <v>用户AB分别点击自己的麦位</v>
       </c>
       <c r="F74" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.执行下麦操作
-&lt;br&gt;2.底部麦克风按钮隐藏&lt;/p&gt;</v>
+        <v>1.执行下麦操作
+2.底部麦克风按钮隐藏</v>
       </c>
     </row>
     <row r="75"/>
@@ -2305,10 +2219,7 @@
         <v>语音房-空座位（房主/管理）</v>
       </c>
       <c r="B76" t="str">
-        <v>&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
+        <v>
 </v>
       </c>
       <c r="C76" t="str"/>
@@ -2316,13 +2227,13 @@
         <v>1</v>
       </c>
       <c r="E76" t="str">
-        <v>&lt;p&gt;
-	房主点击空座位&lt;/p&gt;
+        <v>
+	房主点击空座位
 </v>
       </c>
       <c r="F76" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：抱用户上座、封闭座位、封闭座位声音、取消&lt;/p&gt;
+        <v>
+	显示选项卡：抱用户上座、封闭座位、封闭座位声音、取消
 </v>
       </c>
     </row>
@@ -2331,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="E77" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，点击取消&lt;/p&gt;</v>
+        <v>接步骤1，点击取消</v>
       </c>
       <c r="F77" t="str">
-        <v>&lt;p&gt;收起选项卡，不作任何操作&lt;/p&gt;</v>
+        <v>收起选项卡，不作任何操作</v>
       </c>
     </row>
     <row r="78">
@@ -2342,13 +2253,13 @@
         <v>3</v>
       </c>
       <c r="E78" t="str">
-        <v>&lt;p&gt;
-	管理员点击空座位&lt;/p&gt;
+        <v>
+	管理员点击空座位
 </v>
       </c>
       <c r="F78" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：抱用户上座、我要上座、封闭座位、封闭座位声音、取消&lt;/p&gt;
+        <v>
+	显示选项卡：抱用户上座、我要上座、封闭座位、封闭座位声音、取消
 </v>
       </c>
     </row>
@@ -2357,10 +2268,10 @@
         <v>4</v>
       </c>
       <c r="E79" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，点击取消&lt;/p&gt;</v>
+        <v>接步骤3，点击取消</v>
       </c>
       <c r="F79" t="str">
-        <v>&lt;p&gt;收起选项卡，不作任何操作&lt;/p&gt;</v>
+        <v>收起选项卡，不作任何操作</v>
       </c>
     </row>
     <row r="80"/>
@@ -2368,25 +2279,20 @@
       <c r="A81" t="str">
         <v>语音房-封闭座位（房主对空座位）</v>
       </c>
-      <c r="B81" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C81" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B81" t="str"/>
+      <c r="C81" t="str"/>
       <c r="D81" t="str">
         <v>1</v>
       </c>
       <c r="E81" t="str">
-        <v>&lt;p&gt;
-	房主点击空座位-选择封闭座位&lt;/p&gt;
+        <v>
+	房主点击空座位-选择封闭座位
 </v>
       </c>
       <c r="F81" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.点击即可关闭座位，座位显示封闭的样式,且toast提示&amp;ldquo;封闭座位成功&amp;rdquo;&lt;br /&gt;
-	2.房主查看该栏变成：解封座位&lt;/p&gt;
+        <v>
+	1.点击即可关闭座位，座位显示封闭的样式,且toast提示封闭座位成功
+	2.房主查看该栏变成：解封座位
 </v>
       </c>
     </row>
@@ -2395,10 +2301,10 @@
         <v>2</v>
       </c>
       <c r="E82" t="str">
-        <v>&lt;p&gt;其他用户点击封禁座位&lt;/p&gt;</v>
+        <v>其他用户点击封禁座位</v>
       </c>
       <c r="F82" t="str">
-        <v>&lt;p&gt;toast提示“当前座位已关闭”&lt;/p&gt;</v>
+        <v>toast提示“当前座位已关闭”</v>
       </c>
     </row>
     <row r="83">
@@ -2406,13 +2312,13 @@
         <v>3</v>
       </c>
       <c r="E83" t="str">
-        <v>&lt;p&gt;
-	房主点击封闭座位-选择解封座位&lt;/p&gt;
+        <v>
+	房主点击封闭座位-选择解封座位
 </v>
       </c>
       <c r="F83" t="str">
-        <v>&lt;p&gt;
-	座位恢复成为空座位状态，且toast提示&amp;ldquo;解封座位成功&amp;rdquo;&lt;/p&gt;
+        <v>
+	座位恢复成为空座位状态，且toast提示解封座位成功
 </v>
       </c>
     </row>
@@ -2421,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="E84" t="str">
-        <v>&lt;p&gt;其他用户点击该座位&lt;/p&gt;</v>
+        <v>其他用户点击该座位</v>
       </c>
       <c r="F84" t="str">
-        <v>&lt;p&gt;可以成功上麦&lt;/p&gt;</v>
+        <v>可以成功上麦</v>
       </c>
     </row>
     <row r="85"/>
@@ -2432,20 +2338,16 @@
       <c r="A86" t="str">
         <v>语音房-座位席状态</v>
       </c>
-      <c r="B86" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C86" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B86" t="str"/>
+      <c r="C86" t="str"/>
       <c r="D86" t="str">
         <v>1</v>
       </c>
       <c r="E86" t="str">
-        <v>&lt;p&gt;没有用户上麦&lt;/p&gt;</v>
+        <v>没有用户上麦</v>
       </c>
       <c r="F86" t="str">
-        <v>&lt;p&gt;座位席保持空座位状态，序号为灰色，显示虚位以待&lt;/p&gt;</v>
+        <v>座位席保持空座位状态，序号为灰色，显示虚位以待</v>
       </c>
     </row>
     <row r="87">
@@ -2453,10 +2355,10 @@
         <v>2</v>
       </c>
       <c r="E87" t="str">
-        <v>&lt;p&gt;有用户上麦，并且关闭麦克风&lt;/p&gt;</v>
+        <v>有用户上麦，并且关闭麦克风</v>
       </c>
       <c r="F87" t="str">
-        <v>&lt;p&gt;座位席显示该用户闭麦状态，有麦克风关闭样式&lt;/p&gt;</v>
+        <v>座位席显示该用户闭麦状态，有麦克风关闭样式</v>
       </c>
     </row>
     <row r="88">
@@ -2464,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="E88" t="str">
-        <v>&lt;p&gt;有用户上麦，并且开启麦克风说话&lt;/p&gt;</v>
+        <v>有用户上麦，并且开启麦克风说话</v>
       </c>
       <c r="F88" t="str">
-        <v>&lt;p&gt;有光圈动画效果显示当前用户说话中&lt;/p&gt;</v>
+        <v>有光圈动画效果显示当前用户说话中</v>
       </c>
     </row>
     <row r="89">
@@ -2475,10 +2377,10 @@
         <v>4</v>
       </c>
       <c r="E89" t="str">
-        <v>&lt;p&gt;用户在座位上被房主/管理禁言&lt;/p&gt;</v>
+        <v>用户在座位上被房主/管理禁言</v>
       </c>
       <c r="F89" t="str">
-        <v>&lt;p&gt;座位席上显示该座位关麦状态，用户无法开麦&lt;/p&gt;</v>
+        <v>座位席上显示该座位关麦状态，用户无法开麦</v>
       </c>
     </row>
     <row r="90">
@@ -2486,10 +2388,10 @@
         <v>5</v>
       </c>
       <c r="E90" t="str">
-        <v>&lt;p&gt;座位被房主/管理员关闭&lt;/p&gt;</v>
+        <v>座位被房主/管理员关闭</v>
       </c>
       <c r="F90" t="str">
-        <v>&lt;p&gt;该座位显示关闭样式（见设计稿）&lt;/p&gt;</v>
+        <v>该座位显示关闭样式（见设计稿）</v>
       </c>
     </row>
     <row r="91">
@@ -2497,10 +2399,10 @@
         <v>6</v>
       </c>
       <c r="E91" t="str">
-        <v>&lt;p&gt;当前语音房同时有座位处于1~5的状态，查看座位席&lt;/p&gt;</v>
+        <v>当前语音房同时有座位处于1~5的状态，查看座位席</v>
       </c>
       <c r="F91" t="str">
-        <v>&lt;p&gt;同上&lt;/p&gt;</v>
+        <v>同上</v>
       </c>
     </row>
     <row r="92"/>
@@ -2508,25 +2410,20 @@
       <c r="A93" t="str">
         <v>语音房-封闭座位声音（房主对空座位）</v>
       </c>
-      <c r="B93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C93" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B93" t="str"/>
+      <c r="C93" t="str"/>
       <c r="D93" t="str">
         <v>1</v>
       </c>
       <c r="E93" t="str">
-        <v>&lt;p&gt;
-	房主点击空座位-选择封闭座位声音&lt;/p&gt;
+        <v>
+	房主点击空座位-选择封闭座位声音
 </v>
       </c>
       <c r="F93" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.座位显示禁言状态,toast提示&amp;ldquo;封闭座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.再次点击空座位，对应操作变更为：开启座位声音&lt;/p&gt;
+        <v>
+	1.座位显示禁言状态,toast提示封闭座位声音成功
+	2.再次点击空座位，对应操作变更为：开启座位声音
 </v>
       </c>
     </row>
@@ -2535,10 +2432,10 @@
         <v>2</v>
       </c>
       <c r="E94" t="str">
-        <v>&lt;p&gt;此时有用户上麦到该座位&lt;/p&gt;</v>
+        <v>此时有用户上麦到该座位</v>
       </c>
       <c r="F94" t="str">
-        <v>&lt;p&gt;可以正常在该座位上麦下麦，但是无法开启麦克风说话&lt;/p&gt;</v>
+        <v>可以正常在该座位上麦下麦，但是无法开启麦克风说话</v>
       </c>
     </row>
     <row r="95">
@@ -2546,15 +2443,14 @@
         <v>3</v>
       </c>
       <c r="E95" t="str">
-        <v>&lt;p&gt;
-	房主再次点击空座位-选择开启座位声音&lt;/p&gt;
+        <v>
+	房主再次点击空座位-选择开启座位声音
 </v>
       </c>
       <c r="F95" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.座位恢复空座位状态，toast提示&amp;ldquo;开启座位声音成功&amp;rdquo;&lt;br /&gt;
-	2.再次点击空座位，对应操作变更为：关闭座位声音&lt;/p&gt;
+        <v>
+	1.座位恢复空座位状态，toast提示开启座位声音成功
+	2.再次点击空座位，对应操作变更为：关闭座位声音
 </v>
       </c>
     </row>
@@ -2563,20 +2459,16 @@
       <c r="A97" t="str">
         <v>语音房-上麦/下麦（管理）</v>
       </c>
-      <c r="B97" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C97" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B97" t="str"/>
+      <c r="C97" t="str"/>
       <c r="D97" t="str">
         <v>1</v>
       </c>
       <c r="E97" t="str">
-        <v>&lt;p&gt;管理员点击空座位&lt;/p&gt;</v>
+        <v>管理员点击空座位</v>
       </c>
       <c r="F97" t="str">
-        <v>&lt;p&gt;显示选项卡：我要上座、封闭座位、封闭座位声音、取消&lt;/p&gt;</v>
+        <v>显示选项卡：我要上座、封闭座位、封闭座位声音、取消</v>
       </c>
     </row>
     <row r="98">
@@ -2584,10 +2476,10 @@
         <v>2</v>
       </c>
       <c r="E98" t="str">
-        <v>&lt;p&gt;点击我要上座&lt;/p&gt;</v>
+        <v>点击我要上座</v>
       </c>
       <c r="F98" t="str">
-        <v>&lt;p&gt;管理员成功上麦到对应的座位上，收起选项卡&lt;/p&gt;</v>
+        <v>管理员成功上麦到对应的座位上，收起选项卡</v>
       </c>
     </row>
     <row r="99">
@@ -2595,10 +2487,10 @@
         <v>3</v>
       </c>
       <c r="E99" t="str">
-        <v>&lt;p&gt;再次点击该座位，资料卡点击下麦&lt;/p&gt;</v>
+        <v>再次点击该座位，资料卡点击下麦</v>
       </c>
       <c r="F99" t="str">
-        <v>&lt;p&gt;从座位上离开，座位恢复空座位状态&lt;/p&gt;</v>
+        <v>从座位上离开，座位恢复空座位状态</v>
       </c>
     </row>
     <row r="100"/>
@@ -2606,20 +2498,16 @@
       <c r="A101" t="str">
         <v>语音房-点有人座位（普通用户）</v>
       </c>
-      <c r="B101" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C101" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B101" t="str"/>
+      <c r="C101" t="str"/>
       <c r="D101" t="str">
         <v>1</v>
       </c>
       <c r="E101" t="str">
-        <v>&lt;p&gt;麦下普通用户点击座位席上有人的座位&lt;/p&gt;</v>
+        <v>麦下普通用户点击座位席上有人的座位</v>
       </c>
       <c r="F101" t="str">
-        <v>&lt;p&gt;调起资料卡，显示该用户的用户头像、昵称、粉丝、魅力值、财富值和个性签名&lt;/p&gt;</v>
+        <v>调起资料卡，显示该用户的用户头像、昵称、粉丝、魅力值、财富值和个性签名</v>
       </c>
     </row>
     <row r="102">
@@ -2627,10 +2515,10 @@
         <v>2</v>
       </c>
       <c r="E102" t="str">
-        <v>&lt;p&gt;点击操作弹框外的空白区域&lt;/p&gt;</v>
+        <v>点击操作弹框外的空白区域</v>
       </c>
       <c r="F102" t="str">
-        <v>&lt;p&gt;弹框消失&lt;/p&gt;</v>
+        <v>弹框消失</v>
       </c>
     </row>
     <row r="103">
@@ -2638,10 +2526,10 @@
         <v>3</v>
       </c>
       <c r="E103" t="str">
-        <v>&lt;p&gt;麦上的用户点击座位席上其他有人的座位&lt;/p&gt;</v>
+        <v>麦上的用户点击座位席上其他有人的座位</v>
       </c>
       <c r="F103" t="str">
-        <v>&lt;p&gt;调起资料卡，显示该用户的用户头像、昵称、粉丝、魅力值、财富值和个性签名&lt;/p&gt;</v>
+        <v>调起资料卡，显示该用户的用户头像、昵称、粉丝、魅力值、财富值和个性签名</v>
       </c>
     </row>
     <row r="104">
@@ -2649,10 +2537,10 @@
         <v>4</v>
       </c>
       <c r="E104" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，点击操作弹框外的空白区域&lt;/p&gt;</v>
+        <v>接步骤3，点击操作弹框外的空白区域</v>
       </c>
       <c r="F104" t="str">
-        <v>&lt;p&gt;弹框消失&lt;/p&gt;</v>
+        <v>弹框消失</v>
       </c>
     </row>
     <row r="105"/>
@@ -2660,23 +2548,19 @@
       <c r="A106" t="str">
         <v>语音房-点有人座位（房主/管理员）</v>
       </c>
-      <c r="B106" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C106" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B106" t="str"/>
+      <c r="C106" t="str"/>
       <c r="D106" t="str">
         <v>1</v>
       </c>
       <c r="E106" t="str">
-        <v>&lt;p&gt;
-	房主点击座位席上有人的座位，拉起资料卡，点击管理&lt;/p&gt;
+        <v>
+	房主点击座位席上有人的座位，拉起资料卡，点击管理
 </v>
       </c>
       <c r="F106" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：抱下麦、封闭座位声音、踢出房间、设为管理/取消管理、取消&lt;/p&gt;
+        <v>
+	显示选项卡：抱下麦、封闭座位声音、踢出房间、设为管理/取消管理、取消
 </v>
       </c>
     </row>
@@ -2685,10 +2569,10 @@
         <v>2</v>
       </c>
       <c r="E107" t="str">
-        <v>&lt;p&gt;点击取消按钮/选项卡外的区域&lt;/p&gt;</v>
+        <v>点击取消按钮/选项卡外的区域</v>
       </c>
       <c r="F107" t="str">
-        <v>&lt;p&gt;收起选项卡，不作任何操作&lt;/p&gt;</v>
+        <v>收起选项卡，不作任何操作</v>
       </c>
     </row>
     <row r="108">
@@ -2696,10 +2580,10 @@
         <v>3</v>
       </c>
       <c r="E108" t="str">
-        <v>&lt;p&gt;管理员点击座位席上有人的座位&lt;/p&gt;</v>
+        <v>管理员点击座位席上有人的座位</v>
       </c>
       <c r="F108" t="str">
-        <v>&lt;p&gt;显示选项卡：抱下麦、封闭座位声音、踢出房间、取消&lt;/p&gt;</v>
+        <v>显示选项卡：抱下麦、封闭座位声音、踢出房间、取消</v>
       </c>
     </row>
     <row r="109">
@@ -2707,10 +2591,10 @@
         <v>4</v>
       </c>
       <c r="E109" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，点击取消按钮/选项卡外的区域&lt;/p&gt;</v>
+        <v>接步骤3，点击取消按钮/选项卡外的区域</v>
       </c>
       <c r="F109" t="str">
-        <v>&lt;p&gt;收起选项卡，不作任何操作&lt;/p&gt;</v>
+        <v>收起选项卡，不作任何操作</v>
       </c>
     </row>
     <row r="110"/>
@@ -2718,25 +2602,20 @@
       <c r="A111" t="str">
         <v>抱用户下麦-房主/管理员</v>
       </c>
-      <c r="B111" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C111" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B111" t="str"/>
+      <c r="C111" t="str"/>
       <c r="D111" t="str">
         <v>1</v>
       </c>
       <c r="E111" t="str">
-        <v>&lt;p&gt;
-	房主点击座位上的用户-资料卡点击操作-选择抱下麦&lt;/p&gt;
+        <v>
+	房主点击座位上的用户-资料卡点击操作-选择抱下麦
 </v>
       </c>
       <c r="F111" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.房主侧toast提示&amp;ldquo;当前用户已被抱下麦&amp;rdquo;&lt;br /&gt;
-	2.用户侧：toast提示&amp;ldquo;您已被移出房间，详询房间管理&amp;rdquo;用户从该座位上离开，座位恢复空座位状态&lt;/p&gt;
+        <v>
+	1.房主侧toast提示当前用户已被抱下麦
+	2.用户侧：toast提示您已被移出房间，详询房间管理用户从该座位上离开，座位恢复空座位状态
 </v>
       </c>
     </row>
@@ -2745,15 +2624,14 @@
         <v>2</v>
       </c>
       <c r="E112" t="str">
-        <v>&lt;p&gt;
-	管理员点击座位上的用户-资料卡点击操作-选择抱下麦&lt;/p&gt;
+        <v>
+	管理员点击座位上的用户-资料卡点击操作-选择抱下麦
 </v>
       </c>
       <c r="F112" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.管理侧toast提示&amp;ldquo;当前用户已被抱下麦&amp;rdquo;&lt;br /&gt;
-	2.用户侧：toast提示&amp;ldquo;您已被移出房间，详询房间管理&amp;rdquo;，用户从该座位上离开，座位恢复空座位状态&lt;/p&gt;
+        <v>
+	1.管理侧toast提示当前用户已被抱下麦
+	2.用户侧：toast提示您已被移出房间，详询房间管理，用户从该座位上离开，座位恢复空座位状态
 </v>
       </c>
     </row>
@@ -2763,12 +2641,10 @@
         <v>语音房-踢出房间5分钟（房主）</v>
       </c>
       <c r="B114" t="str">
-        <v>&lt;p&gt;
-	踢出时间配置：&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="background-color: rgb(240, 240, 240); color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px;"&gt;1、采用通用配置，只能配置2项；&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(51, 51, 51); font-family: Arial, sans-serif; font-size: 14px; background-color: rgb(240, 240, 240);"&gt;2、配置单位为秒，健值为：voiceRoomKickUserTime&lt;/span&gt;&lt;/p&gt;
+        <v>
+	踢出时间配置：
+	1、采用通用配置，只能配置2项；
+	2、配置单位为秒，健值为：voiceRoomKickUserTime
 </v>
       </c>
       <c r="C114" t="str"/>
@@ -2776,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="E114" t="str">
-        <v>&lt;p&gt;房主点击座位上的用户-资料卡点击操作-踢出房间&lt;/p&gt;</v>
+        <v>房主点击座位上的用户-资料卡点击操作-踢出房间</v>
       </c>
       <c r="F114" t="str">
-        <v>&lt;p&gt;弹出框“请选择时长"，提示选择踢出时间5分钟、10分钟（后台可配置）&lt;/p&gt;</v>
+        <v>弹出框“请选择时长"，提示选择踢出时间5分钟、10分钟（后台可配置）</v>
       </c>
     </row>
     <row r="115">
@@ -2787,15 +2663,14 @@
         <v>2</v>
       </c>
       <c r="E115" t="str">
-        <v>&lt;p&gt;
-	选择5分钟，点击确定踢出按钮&lt;/p&gt;
+        <v>
+	选择5分钟，点击确定踢出按钮
 </v>
       </c>
       <c r="F115" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.房主侧toast提示&amp;ldquo;当前用户已踢出&amp;rdquo;&lt;br /&gt;
-	2.用户侧离开房间并弹窗提示&amp;ldquo;您已被移出房间，详询房间管理&amp;rdquo;&lt;/p&gt;
+        <v>
+	1.房主侧toast提示当前用户已踢出
+	2.用户侧离开房间并弹窗提示您已被移出房间，详询房间管理
 </v>
       </c>
     </row>
@@ -2804,13 +2679,13 @@
         <v>3</v>
       </c>
       <c r="E116" t="str">
-        <v>&lt;p&gt;
-	用户5分钟内进入原来的语音房&lt;/p&gt;
+        <v>
+	用户5分钟内进入原来的语音房
 </v>
       </c>
       <c r="F116" t="str">
-        <v>&lt;p&gt;
-	用户侧弹窗提示：您当前无法进入该房间，详询房主或管理&lt;/p&gt;
+        <v>
+	用户侧弹窗提示：您当前无法进入该房间，详询房主或管理
 </v>
       </c>
     </row>
@@ -2819,10 +2694,10 @@
         <v>4</v>
       </c>
       <c r="E117" t="str">
-        <v>&lt;p&gt;用户5分钟内进入其他语音房&lt;/p&gt;</v>
+        <v>用户5分钟内进入其他语音房</v>
       </c>
       <c r="F117" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="118">
@@ -2830,10 +2705,10 @@
         <v>5</v>
       </c>
       <c r="E118" t="str">
-        <v>&lt;p&gt;用户超过5分钟再次进入原来被踢出的语音房&lt;/p&gt;</v>
+        <v>用户超过5分钟再次进入原来被踢出的语音房</v>
       </c>
       <c r="F118" t="str">
-        <v>&lt;p&gt;可以正常进入语音房&lt;/p&gt;</v>
+        <v>可以正常进入语音房</v>
       </c>
     </row>
     <row r="119"/>
@@ -2841,22 +2716,20 @@
       <c r="A120" t="str">
         <v>语音房-设为管理员/取消管理</v>
       </c>
-      <c r="B120" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B120" t="str"/>
       <c r="C120" t="str">
-        <v>&lt;p&gt;用户A非管理&lt;/p&gt;</v>
+        <v>用户A非管理</v>
       </c>
       <c r="D120" t="str">
         <v>1</v>
       </c>
       <c r="E120" t="str">
-        <v>&lt;p&gt;房主点击麦上用户A-资料卡点击操作-设为管理&lt;/p&gt;</v>
+        <v>房主点击麦上用户A-资料卡点击操作-设为管理</v>
       </c>
       <c r="F120" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.房主侧toast提示“设置成功”
-&lt;br&gt;2.用户侧提示“你已经被设为管理员”
-&lt;br&gt;3.公屏文字显示XXX 已成为房间管理&lt;/p&gt;</v>
+        <v>1.房主侧toast提示“设置成功”
+2.用户侧提示“你已经被设为管理员”
+3.公屏文字显示XXX 已成为房间管理</v>
       </c>
     </row>
     <row r="121">
@@ -2864,10 +2737,10 @@
         <v>2</v>
       </c>
       <c r="E121" t="str">
-        <v>&lt;p&gt;查看在线列表&lt;/p&gt;</v>
+        <v>查看在线列表</v>
       </c>
       <c r="F121" t="str">
-        <v>&lt;p&gt;用户A昵称前带有管理标识，且排序跟在房主下方，优先于普通用户&lt;/p&gt;</v>
+        <v>用户A昵称前带有管理标识，且排序跟在房主下方，优先于普通用户</v>
       </c>
     </row>
     <row r="122">
@@ -2875,10 +2748,10 @@
         <v>3</v>
       </c>
       <c r="E122" t="str">
-        <v>&lt;p&gt;房主点击右上角更多按钮查看管理列表&lt;/p&gt;</v>
+        <v>房主点击右上角更多按钮查看管理列表</v>
       </c>
       <c r="F122" t="str">
-        <v>&lt;p&gt;管理列表显示用户A的信息：头像、昵称、性别、撤销按钮&lt;/p&gt;</v>
+        <v>管理列表显示用户A的信息：头像、昵称、性别、撤销按钮</v>
       </c>
     </row>
     <row r="123">
@@ -2886,11 +2759,11 @@
         <v>4</v>
       </c>
       <c r="E123" t="str">
-        <v>&lt;p&gt;房主点击麦上用户A-资料卡点击操作-取消管理&lt;/p&gt;</v>
+        <v>房主点击麦上用户A-资料卡点击操作-取消管理</v>
       </c>
       <c r="F123" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.房主侧toast提示“设置成功”
-&lt;br&gt;2.用户侧提示“你已经被撤销管理员”&lt;/p&gt;</v>
+        <v>1.房主侧toast提示“设置成功”
+2.用户侧提示“你已经被撤销管理员”</v>
       </c>
     </row>
     <row r="124">
@@ -2898,10 +2771,10 @@
         <v>5</v>
       </c>
       <c r="E124" t="str">
-        <v>&lt;p&gt;查看在线列表&lt;/p&gt;</v>
+        <v>查看在线列表</v>
       </c>
       <c r="F124" t="str">
-        <v>&lt;p&gt;用户A昵称前没有管理标识，且排序跟在房主和其他管理的下方&lt;/p&gt;</v>
+        <v>用户A昵称前没有管理标识，且排序跟在房主和其他管理的下方</v>
       </c>
     </row>
     <row r="125">
@@ -2909,10 +2782,10 @@
         <v>6</v>
       </c>
       <c r="E125" t="str">
-        <v>&lt;p&gt;房主点击右上角更多按钮查看管理列表&lt;/p&gt;</v>
+        <v>房主点击右上角更多按钮查看管理列表</v>
       </c>
       <c r="F125" t="str">
-        <v>&lt;p&gt;不显示用户A的信息&lt;/p&gt;</v>
+        <v>不显示用户A的信息</v>
       </c>
     </row>
     <row r="126"/>
@@ -2920,20 +2793,16 @@
       <c r="A127" t="str">
         <v>排麦列表-用户</v>
       </c>
-      <c r="B127" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C127" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B127" t="str"/>
+      <c r="C127" t="str"/>
       <c r="D127" t="str">
         <v>1</v>
       </c>
       <c r="E127" t="str">
-        <v>&lt;p&gt;用户进入语音房，当前座位席有空座位&lt;/p&gt;</v>
+        <v>用户进入语音房，当前座位席有空座位</v>
       </c>
       <c r="F127" t="str">
-        <v>&lt;p&gt;底部操作栏不显示“排”（排麦）按钮&lt;/p&gt;</v>
+        <v>底部操作栏不显示“排”（排麦）按钮</v>
       </c>
     </row>
     <row r="128">
@@ -2941,10 +2810,10 @@
         <v>2</v>
       </c>
       <c r="E128" t="str">
-        <v>&lt;p&gt;此时座位坐满，未上麦用户查看底部&lt;/p&gt;</v>
+        <v>此时座位坐满，未上麦用户查看底部</v>
       </c>
       <c r="F128" t="str">
-        <v>&lt;p&gt;底部操作栏显示“排”（排麦）按钮&lt;/p&gt;</v>
+        <v>底部操作栏显示“排”（排麦）按钮</v>
       </c>
     </row>
     <row r="129">
@@ -2952,12 +2821,12 @@
         <v>3</v>
       </c>
       <c r="E129" t="str">
-        <v>&lt;p&gt;点击【排】按钮&lt;/p&gt;</v>
+        <v>点击【排】按钮</v>
       </c>
       <c r="F129" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.展开排麦列表，列表显示当前申请排麦的用户及数量
-&lt;br&gt;2.底部显示：马上上座
-&lt;br&gt;3.列表中显示用户为“您当前的位置：X”&lt;/p&gt;</v>
+        <v>1.展开排麦列表，列表显示当前申请排麦的用户及数量
+2.底部显示：马上上座
+3.列表中显示用户为“您当前的位置：X”</v>
       </c>
     </row>
     <row r="130">
@@ -2965,11 +2834,11 @@
         <v>4</v>
       </c>
       <c r="E130" t="str">
-        <v>&lt;p&gt;点击【马上上座】按钮&lt;/p&gt;</v>
+        <v>点击【马上上座】按钮</v>
       </c>
       <c r="F130" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.toast提示“申请成功”，并进入排队列表，显示用户头像、性别、昵称
-&lt;br&gt;2.底部按钮切换为“取消上座排队”&lt;/p&gt;</v>
+        <v>1.toast提示“申请成功”，并进入排队列表，显示用户头像、性别、昵称
+2.底部按钮切换为“取消上座排队”</v>
       </c>
     </row>
     <row r="131">
@@ -2977,11 +2846,11 @@
         <v>5</v>
       </c>
       <c r="E131" t="str">
-        <v>&lt;p&gt;点击【取消上座排队】&lt;/p&gt;</v>
+        <v>点击【取消上座排队】</v>
       </c>
       <c r="F131" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.toast提示“已取消申请”，按钮状态重新回到“马上上座”
-&lt;br&gt;2.用户申请信息从列表中移除&lt;/p&gt;</v>
+        <v>1.toast提示“已取消申请”，按钮状态重新回到“马上上座”
+2.用户申请信息从列表中移除</v>
       </c>
     </row>
     <row r="132">
@@ -2989,10 +2858,10 @@
         <v>6</v>
       </c>
       <c r="E132" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;4，此时麦上出现空座位&lt;/p&gt;</v>
+        <v>接步骤4，此时麦上出现空座位</v>
       </c>
       <c r="F132" t="str">
-        <v>&lt;p&gt;自动上麦到空座位中&lt;/p&gt;</v>
+        <v>自动上麦到空座位中</v>
       </c>
     </row>
     <row r="133"/>
@@ -3000,20 +2869,16 @@
       <c r="A134" t="str">
         <v>公屏-进场流水</v>
       </c>
-      <c r="B134" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C134" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B134" t="str"/>
+      <c r="C134" t="str"/>
       <c r="D134" t="str">
         <v>1</v>
       </c>
       <c r="E134" t="str">
-        <v>&lt;p&gt;用户A进入语音房，房间内其他用户查看公屏&lt;/p&gt;</v>
+        <v>用户A进入语音房，房间内其他用户查看公屏</v>
       </c>
       <c r="F134" t="str">
-        <v>&lt;p&gt;显示进场流水：xxx（用户A昵称）进入了房间&lt;/p&gt;</v>
+        <v>显示进场流水：xxx（用户A昵称）进入了房间</v>
       </c>
     </row>
     <row r="135">
@@ -3021,10 +2886,10 @@
         <v>2</v>
       </c>
       <c r="E135" t="str">
-        <v>&lt;p&gt;用户A退出房间重进&lt;/p&gt;</v>
+        <v>用户A退出房间重进</v>
       </c>
       <c r="F135" t="str">
-        <v>&lt;p&gt;再次出现进场流水&lt;/p&gt;</v>
+        <v>再次出现进场流水</v>
       </c>
     </row>
     <row r="136">
@@ -3032,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="E136" t="str">
-        <v>&lt;p&gt;用户A昵称设置为应用限制的最大长度，进入语音房查看&lt;/p&gt;</v>
+        <v>用户A昵称设置为应用限制的最大长度，进入语音房查看</v>
       </c>
       <c r="F136" t="str">
-        <v>&lt;p&gt;显示进场流水，可以完整显示或者昵称以…结尾&lt;/p&gt;</v>
+        <v>显示进场流水，可以完整显示或者昵称以…结尾</v>
       </c>
     </row>
     <row r="137"/>
@@ -3043,20 +2908,16 @@
       <c r="A138" t="str">
         <v>底部操作栏</v>
       </c>
-      <c r="B138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C138" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B138" t="str"/>
+      <c r="C138" t="str"/>
       <c r="D138" t="str">
         <v>1</v>
       </c>
       <c r="E138" t="str">
-        <v>&lt;p&gt;游客（未登录用户）进入语音房，查看底部操作栏&lt;/p&gt;</v>
+        <v>游客（未登录用户）进入语音房，查看底部操作栏</v>
       </c>
       <c r="F138" t="str">
-        <v>&lt;p&gt;显示发言输入框、扬声器（默认放音状态）、送礼icon、&lt;/p&gt;</v>
+        <v>显示发言输入框、扬声器（默认放音状态）、送礼icon、</v>
       </c>
     </row>
     <row r="139">
@@ -3064,10 +2925,10 @@
         <v>2</v>
       </c>
       <c r="E139" t="str">
-        <v>&lt;p&gt;游客点击发言输入框&lt;/p&gt;</v>
+        <v>游客点击发言输入框</v>
       </c>
       <c r="F139" t="str">
-        <v>&lt;p&gt;拉起半屏登录提示窗口：有手机、微信登录按钮&lt;/p&gt;</v>
+        <v>拉起半屏登录提示窗口：有手机、微信登录按钮</v>
       </c>
     </row>
     <row r="140">
@@ -3075,10 +2936,10 @@
         <v>3</v>
       </c>
       <c r="E140" t="str">
-        <v>&lt;p&gt;选择任意方式登录后查看底部操作栏&lt;/p&gt;</v>
+        <v>选择任意方式登录后查看底部操作栏</v>
       </c>
       <c r="F140" t="str">
-        <v>&lt;p&gt;显示发言输入框、扬声器、送礼icon&lt;/p&gt;</v>
+        <v>显示发言输入框、扬声器、送礼icon</v>
       </c>
     </row>
     <row r="141">
@@ -3086,10 +2947,10 @@
         <v>4</v>
       </c>
       <c r="E141" t="str">
-        <v>&lt;p&gt;点击上麦到座位后查看底部操作栏&lt;/p&gt;</v>
+        <v>点击上麦到座位后查看底部操作栏</v>
       </c>
       <c r="F141" t="str">
-        <v>&lt;p&gt;显示发言输入框、麦克风按钮（默认开麦）、扬声器、送礼icon&lt;/p&gt;</v>
+        <v>显示发言输入框、麦克风按钮（默认开麦）、扬声器、送礼icon</v>
       </c>
     </row>
     <row r="142"/>
@@ -3097,20 +2958,16 @@
       <c r="A143" t="str">
         <v>公屏聊天</v>
       </c>
-      <c r="B143" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C143" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B143" t="str"/>
+      <c r="C143" t="str"/>
       <c r="D143" t="str">
         <v>1</v>
       </c>
       <c r="E143" t="str">
-        <v>&lt;p&gt;已登录用户点击发言输入框&lt;/p&gt;</v>
+        <v>已登录用户点击发言输入框</v>
       </c>
       <c r="F143" t="str">
-        <v>&lt;p&gt;调起键盘，键盘上方显示发言输入框和发送按钮&lt;/p&gt;</v>
+        <v>调起键盘，键盘上方显示发言输入框和发送按钮</v>
       </c>
     </row>
     <row r="144">
@@ -3118,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="E144" t="str">
-        <v>&lt;p&gt;输入任意内容点击发送按钮&lt;/p&gt;</v>
+        <v>输入任意内容点击发送按钮</v>
       </c>
       <c r="F144" t="str">
-        <v>&lt;p&gt;输入框的内容直接发送到公屏，显示格式为：xxx：发言内容&lt;/p&gt;</v>
+        <v>输入框的内容直接发送到公屏，显示格式为：xxx：发言内容</v>
       </c>
     </row>
     <row r="145">
@@ -3129,10 +2986,10 @@
         <v>3</v>
       </c>
       <c r="E145" t="str">
-        <v>&lt;p&gt;发送中文、英文、数字、特殊字符&lt;/p&gt;</v>
+        <v>发送中文、英文、数字、特殊字符</v>
       </c>
       <c r="F145" t="str">
-        <v>&lt;p&gt;均可正常发送并显示到公屏&lt;/p&gt;</v>
+        <v>均可正常发送并显示到公屏</v>
       </c>
     </row>
     <row r="146">
@@ -3140,10 +2997,10 @@
         <v>4</v>
       </c>
       <c r="E146" t="str">
-        <v>&lt;p&gt;点击公屏发言用户昵称&lt;/p&gt;</v>
+        <v>点击公屏发言用户昵称</v>
       </c>
       <c r="F146" t="str">
-        <v>&lt;p&gt;调起用户资料卡&lt;/p&gt;</v>
+        <v>调起用户资料卡</v>
       </c>
     </row>
     <row r="147"/>
@@ -3151,20 +3008,16 @@
       <c r="A148" t="str">
         <v>语音房-资料卡（房主/管理）</v>
       </c>
-      <c r="B148" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C148" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B148" t="str"/>
+      <c r="C148" t="str"/>
       <c r="D148" t="str">
         <v>1</v>
       </c>
       <c r="E148" t="str">
-        <v>&lt;p&gt;房主点击麦上任意用户&lt;/p&gt;</v>
+        <v>房主点击麦上任意用户</v>
       </c>
       <c r="F148" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报、操作（以设计稿为准）&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报、操作（以设计稿为准）</v>
       </c>
     </row>
     <row r="149">
@@ -3172,14 +3025,14 @@
         <v>2</v>
       </c>
       <c r="E149" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	1，点击操作按钮&lt;/p&gt;
+        <v>
+	接步骤
+	1，点击操作按钮
 </v>
       </c>
       <c r="F149" t="str">
-        <v>&lt;p&gt;
-	显示选项卡：抱下麦、封闭座位、封闭座位声音、踢出房间、设为管理/取消管理、取消&lt;/p&gt;
+        <v>
+	显示选项卡：抱下麦、封闭座位、封闭座位声音、踢出房间、设为管理/取消管理、取消
 </v>
       </c>
     </row>
@@ -3188,10 +3041,10 @@
         <v>3</v>
       </c>
       <c r="E150" t="str">
-        <v>&lt;p&gt;房主点击麦下观众公屏发言昵称&lt;/p&gt;</v>
+        <v>房主点击麦下观众公屏发言昵称</v>
       </c>
       <c r="F150" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报、操作（以设计稿为准）&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报、操作（以设计稿为准）</v>
       </c>
     </row>
     <row r="151">
@@ -3199,10 +3052,10 @@
         <v>4</v>
       </c>
       <c r="E151" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;3，点击操作按钮&lt;/p&gt;</v>
+        <v>接步骤3，点击操作按钮</v>
       </c>
       <c r="F151" t="str">
-        <v>&lt;p&gt;显示选项卡：踢出房间、设为管理/取消管理、取消&lt;/p&gt;</v>
+        <v>显示选项卡：踢出房间、设为管理/取消管理、取消</v>
       </c>
     </row>
     <row r="152">
@@ -3210,10 +3063,10 @@
         <v>5</v>
       </c>
       <c r="E152" t="str">
-        <v>&lt;p&gt;管理员重复步骤1~4&lt;/p&gt;</v>
+        <v>管理员重复步骤1~4</v>
       </c>
       <c r="F152" t="str">
-        <v>&lt;p&gt;没有设为管理/取消管理，其他同上&lt;/p&gt;</v>
+        <v>没有设为管理/取消管理，其他同上</v>
       </c>
     </row>
     <row r="153"/>
@@ -3221,21 +3074,17 @@
       <c r="A154" t="str">
         <v>语音房-资料卡（上座用户视觉）</v>
       </c>
-      <c r="B154" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C154" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B154" t="str"/>
+      <c r="C154" t="str"/>
       <c r="D154" t="str">
         <v>1</v>
       </c>
       <c r="E154" t="str">
-        <v>&lt;p&gt;麦上用户点击自己的头像&lt;/p&gt;</v>
+        <v>麦上用户点击自己的头像</v>
       </c>
       <c r="F154" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名（以设计稿为准）
-&lt;br&gt;2.有下麦按钮（房主没有下麦按钮）&lt;/p&gt;</v>
+        <v>1.底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名（以设计稿为准）
+2.有下麦按钮（房主没有下麦按钮）</v>
       </c>
     </row>
     <row r="155">
@@ -3243,11 +3092,11 @@
         <v>2</v>
       </c>
       <c r="E155" t="str">
-        <v>&lt;p&gt;麦上用户点击公屏发言自己的昵称&lt;/p&gt;</v>
+        <v>麦上用户点击公屏发言自己的昵称</v>
       </c>
       <c r="F155" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名（以设计稿为准）
-&lt;br&gt;2.有下麦按钮&lt;/p&gt;</v>
+        <v>1.底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名（以设计稿为准）
+2.有下麦按钮</v>
       </c>
     </row>
     <row r="156">
@@ -3255,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="E156" t="str">
-        <v>&lt;p&gt;麦上用户点击其他麦上用户头像&lt;/p&gt;</v>
+        <v>麦上用户点击其他麦上用户头像</v>
       </c>
       <c r="F156" t="str">
-        <v>&lt;p&gt;底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报&lt;/p&gt;</v>
+        <v>底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报</v>
       </c>
     </row>
     <row r="157">
@@ -3266,13 +3115,13 @@
         <v>4</v>
       </c>
       <c r="E157" t="str">
-        <v>&lt;p&gt;
-	麦上用户点击其他麦下用户公屏昵称&lt;/p&gt;
+        <v>
+	麦上用户点击其他麦下用户公屏昵称
 </v>
       </c>
       <c r="F157" t="str">
-        <v>&lt;p&gt;
-	底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、&lt;span style="color:#ffffff;"&gt;送礼、&lt;/span&gt;举报&lt;/p&gt;
+        <v>
+	底部弹出资料卡，显示用户头像、昵称、年龄、性别、粉丝数、魅力值、个人签名、关注、送花、送礼、举报
 </v>
       </c>
     </row>
@@ -3311,21 +3160,17 @@
       <c r="A2" t="str">
         <v>房间最小化</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;点击语音房左上角返回按钮&lt;/p&gt;</v>
+        <v>点击语音房左上角返回按钮</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.回到上一层页面，左下角显示悬浮窗，包括：显示房主头像、房间名称、房间id、退出按钮，房间封面有顺时针转动动画
-&lt;br&gt;2.悬浮窗状态下可以正常听到语音房内的音频&lt;/p&gt;</v>
+        <v>1.回到上一层页面，左下角显示悬浮窗，包括：显示房主头像、房间名称、房间id、退出按钮，房间封面有顺时针转动动画
+2.悬浮窗状态下可以正常听到语音房内的音频</v>
       </c>
     </row>
     <row r="3">
@@ -3333,10 +3178,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;拖动悬浮窗&lt;/p&gt;</v>
+        <v>拖动悬浮窗</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;可以移动到任意位置&lt;/p&gt;</v>
+        <v>可以移动到任意位置</v>
       </c>
     </row>
     <row r="4">
@@ -3344,10 +3189,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;点击语音房悬浮窗的任意区域&lt;/p&gt;</v>
+        <v>点击语音房悬浮窗的任意区域</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;最大化直播间，回到语音房页面&lt;/p&gt;</v>
+        <v>最大化直播间，回到语音房页面</v>
       </c>
     </row>
     <row r="5">
@@ -3355,10 +3200,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;1，点击退出按钮&lt;/p&gt;</v>
+        <v>接步骤1，点击退出按钮</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;直接退出当前直播间，悬浮窗不展示&lt;/p&gt;</v>
+        <v>直接退出当前直播间，悬浮窗不展示</v>
       </c>
     </row>
     <row r="6"/>
@@ -3366,25 +3211,22 @@
       <c r="A7" t="str">
         <v>房间最小化-阅读器内</v>
       </c>
-      <c r="B7" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B7" t="str"/>
       <c r="C7" t="str">
-        <v>&lt;p&gt;最小化悬浮窗形式显示语音房&lt;/p&gt;</v>
+        <v>最小化悬浮窗形式显示语音房</v>
       </c>
       <c r="D7" t="str">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;
-	首次进入任意小说阅读器【iOS-flutter版本没有小说阅读器】&lt;/p&gt;
+        <v>
+	首次进入任意小说阅读器【iOS-flutter版本没有小说阅读器】
 </v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.出现一个悬浮窗收起的动画，随后tip提示：再次点击空白处即可唤出房间悬浮窗口哦~（以设计稿为准）&lt;br /&gt;
-	2.悬浮窗隐藏状态显示，可以听到语音房内的音频&lt;/p&gt;
+        <v>
+	1.出现一个悬浮窗收起的动画，随后tip提示：再次点击空白处即可唤出房间悬浮窗口哦~（以设计稿为准）
+	2.悬浮窗隐藏状态显示，可以听到语音房内的音频
 </v>
       </c>
     </row>
@@ -3393,10 +3235,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;点击阅读器的空白区域&lt;/p&gt;</v>
+        <v>点击阅读器的空白区域</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;唤出菜单栏的同时出现悬浮窗&lt;/p&gt;</v>
+        <v>唤出菜单栏的同时出现悬浮窗</v>
       </c>
     </row>
     <row r="9">
@@ -3404,10 +3246,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;点击悬浮窗任意区域&lt;/p&gt;</v>
+        <v>点击悬浮窗任意区域</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;进入语音房&lt;/p&gt;</v>
+        <v>进入语音房</v>
       </c>
     </row>
     <row r="10">
@@ -3415,13 +3257,13 @@
         <v>4</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;
-	点击手机的物理返回按键&lt;/p&gt;
+        <v>
+	点击手机的物理返回按键
 </v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;
-	退出阅读器&lt;/p&gt;
+        <v>
+	退出阅读器
 </v>
       </c>
     </row>
@@ -3430,10 +3272,10 @@
         <v>5</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;2，再次点击阅读器的空白区域&lt;/p&gt;</v>
+        <v>续步骤2，再次点击阅读器的空白区域</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;隐藏菜单栏同时隐藏悬浮窗&lt;/p&gt;</v>
+        <v>隐藏菜单栏同时隐藏悬浮窗</v>
       </c>
     </row>
   </sheetData>
@@ -3471,20 +3313,16 @@
       <c r="A2" t="str">
         <v>召唤粉丝功能</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;房主点击房间内右上角更多按钮&lt;/p&gt;</v>
+        <v>房主点击房间内右上角更多按钮</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;弹出功能选择弹窗&lt;/p&gt;</v>
+        <v>弹出功能选择弹窗</v>
       </c>
     </row>
     <row r="3">
@@ -3492,10 +3330,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;点击【召唤粉丝】&lt;/p&gt;</v>
+        <v>点击【召唤粉丝】</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;进入二次确认弹窗：每天仅有两次机会召唤粉丝，是否立即召唤？ 再想想，立即召唤&lt;/p&gt;</v>
+        <v>进入二次确认弹窗：每天仅有两次机会召唤粉丝，是否立即召唤？ 再想想，立即召唤</v>
       </c>
     </row>
     <row r="4">
@@ -3503,10 +3341,10 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;2，选择立即召唤&lt;/p&gt;</v>
+        <v>续步骤2，选择立即召唤</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;发送一条默认格式的im信息给房主的所有粉丝用户，内容：“我正在房间名开播，快来和我互动吧~【去房间】”。&lt;/p&gt;</v>
+        <v>发送一条默认格式的im信息给房主的所有粉丝用户，内容：“我正在房间名开播，快来和我互动吧~【去房间】”。</v>
       </c>
     </row>
     <row r="5">
@@ -3514,10 +3352,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;2，选择再想想&lt;/p&gt;</v>
+        <v>续步骤2，选择再想想</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;弹窗关闭，不会发出im信息&lt;/p&gt;</v>
+        <v>弹窗关闭，不会发出im信息</v>
       </c>
     </row>
     <row r="6"/>
@@ -3525,20 +3363,16 @@
       <c r="A7" t="str">
         <v>粉丝查看IM信息</v>
       </c>
-      <c r="B7" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C7" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B7" t="str"/>
+      <c r="C7" t="str"/>
       <c r="D7" t="str">
         <v>1</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;粉丝A为用户B粉丝，用户B使用召唤粉丝功能&lt;/p&gt;</v>
+        <v>粉丝A为用户B粉丝，用户B使用召唤粉丝功能</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;粉丝A能收到粉丝召唤的IM信息，内容为：“我正在房间名开播，快来和我互动吧~【去房间】”&lt;/p&gt;</v>
+        <v>粉丝A能收到粉丝召唤的IM信息，内容为：“我正在房间名开播，快来和我互动吧~【去房间】”</v>
       </c>
     </row>
     <row r="8">
@@ -3546,10 +3380,10 @@
         <v>2</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，粉丝A点击去房间&lt;/p&gt;</v>
+        <v>续步骤1，粉丝A点击去房间</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;跳转到用户B的直播间&lt;/p&gt;</v>
+        <v>跳转到用户B的直播间</v>
       </c>
     </row>
   </sheetData>
@@ -3587,23 +3421,19 @@
       <c r="A2" t="str">
         <v>房间公屏新增发图功能</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	管理员或者房主进入房间打开点击公屏发言&lt;/p&gt;
+        <v>
+	管理员或者房主进入房间打开点击公屏发言
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	在公屏拉起键盘时新增发送图片和拍照按钮入口，位于输入框右边&lt;/p&gt;
+        <v>
+	在公屏拉起键盘时新增发送图片和拍照按钮入口，位于输入框右边
 </v>
       </c>
     </row>
@@ -3612,13 +3442,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	普通用户进入房间打开点击公屏发言&lt;/p&gt;
+        <v>
+	普通用户进入房间打开点击公屏发言
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	没有发图和拍照入口的按钮&lt;/p&gt;
+        <v>
+	没有发图和拍照入口的按钮
 </v>
       </c>
     </row>
@@ -3627,20 +3457,18 @@
       <c r="A5" t="str">
         <v>拍照权限询问</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
       <c r="C5" t="str">
-        <v>&lt;p&gt;没有授权摄像头权限&lt;/p&gt;</v>
+        <v>没有授权摄像头权限</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;公屏发言中点击选择拍照&lt;/p&gt;</v>
+        <v>公屏发言中点击选择拍照</v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;弹窗提示是否允许应用访问相机功能&lt;/p&gt;</v>
+        <v>弹窗提示是否允许应用访问相机功能</v>
       </c>
     </row>
     <row r="6">
@@ -3648,10 +3476,10 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，选择允许&lt;/p&gt;</v>
+        <v>续步骤1，选择允许</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;拉起手机拍照功能，进入拍照页面&lt;/p&gt;</v>
+        <v>拉起手机拍照功能，进入拍照页面</v>
       </c>
     </row>
     <row r="7">
@@ -3659,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，选择不允许&lt;/p&gt;</v>
+        <v>续步骤1，选择不允许</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;弹窗提示需要在系统设置中开启相机权限功能&lt;/p&gt;</v>
+        <v>弹窗提示需要在系统设置中开启相机权限功能</v>
       </c>
     </row>
     <row r="8"/>
@@ -3670,20 +3498,18 @@
       <c r="A9" t="str">
         <v>公屏拍照发送</v>
       </c>
-      <c r="B9" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B9" t="str"/>
       <c r="C9" t="str">
-        <v>&lt;p&gt;当前已授权摄像头权限&lt;/p&gt;</v>
+        <v>当前已授权摄像头权限</v>
       </c>
       <c r="D9" t="str">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;公屏发言中点击选择拍照&lt;/p&gt;</v>
+        <v>公屏发言中点击选择拍照</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;拉起手机拍照功能，进入拍照页面&lt;/p&gt;</v>
+        <v>拉起手机拍照功能，进入拍照页面</v>
       </c>
     </row>
     <row r="10">
@@ -3691,10 +3517,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，点击拍摄&lt;/p&gt;</v>
+        <v>续步骤1，点击拍摄</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;拍摄成功，进入拍照预览页，下方显示重拍和发送按钮&lt;/p&gt;</v>
+        <v>拍摄成功，进入拍照预览页，下方显示重拍和发送按钮</v>
       </c>
     </row>
     <row r="11">
@@ -3702,10 +3528,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;2，点击发送&lt;/p&gt;</v>
+        <v>续步骤2，点击发送</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;照片成功发出到公屏，其他人能看到该照片&lt;/p&gt;</v>
+        <v>照片成功发出到公屏，其他人能看到该照片</v>
       </c>
     </row>
     <row r="12"/>
@@ -3715,18 +3541,18 @@
       </c>
       <c r="B13" t="str"/>
       <c r="C13" t="str">
-        <v>&lt;p&gt;
-	没有授权相册权限（=没有授权存储权限）&lt;/p&gt;
+        <v>
+	没有授权相册权限（=没有授权存储权限）
 </v>
       </c>
       <c r="D13" t="str">
         <v>0</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，选择允许&lt;/p&gt;</v>
+        <v>续步骤1，选择允许</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;拉起默认相册按最近添加进相册的顺序排序，最新的照片排在最后&lt;/p&gt;</v>
+        <v>拉起默认相册按最近添加进相册的顺序排序，最新的照片排在最后</v>
       </c>
     </row>
     <row r="14">
@@ -3734,10 +3560,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，选择不允许&lt;/p&gt;</v>
+        <v>续步骤1，选择不允许</v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;弹窗提示需要在系统设置中开启相册权限功能&lt;/p&gt;</v>
+        <v>弹窗提示需要在系统设置中开启相册权限功能</v>
       </c>
     </row>
     <row r="15">
@@ -3745,10 +3571,10 @@
         <v>1</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;公屏发言中点击选择发送图片&lt;/p&gt;</v>
+        <v>公屏发言中点击选择发送图片</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;弹窗提示是否允许应用访问相册功能&lt;/p&gt;</v>
+        <v>弹窗提示是否允许应用访问相册功能</v>
       </c>
     </row>
     <row r="16"/>
@@ -3756,20 +3582,18 @@
       <c r="A17" t="str">
         <v>公屏发送照片</v>
       </c>
-      <c r="B17" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B17" t="str"/>
       <c r="C17" t="str">
-        <v>&lt;p&gt;已授权相册权限&lt;/p&gt;</v>
+        <v>已授权相册权限</v>
       </c>
       <c r="D17" t="str">
         <v>1</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;公屏发言中点击选择发送图片&lt;/p&gt;</v>
+        <v>公屏发言中点击选择发送图片</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;拉起默认相册&lt;/p&gt;</v>
+        <v>拉起默认相册</v>
       </c>
     </row>
     <row r="18">
@@ -3777,10 +3601,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;续步骤&lt;br&gt;1，选择其中一张图片点击发送&lt;/p&gt;</v>
+        <v>续步骤1，选择其中一张图片点击发送</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;照片成功发出到公屏，其他人能看到该照片&lt;/p&gt;</v>
+        <v>照片成功发出到公屏，其他人能看到该照片</v>
       </c>
     </row>
   </sheetData>
@@ -3818,20 +3642,16 @@
       <c r="A2" t="str">
         <v>公屏禁言入口</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;房主在直播间中点击用户资料卡右上角管理按钮&lt;/p&gt;</v>
+        <v>房主在直播间中点击用户资料卡右上角管理按钮</v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;拉起管理面板，包含“公屏禁言”操作&lt;/p&gt;</v>
+        <v>拉起管理面板，包含“公屏禁言”操作</v>
       </c>
     </row>
     <row r="3">
@@ -3839,10 +3659,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;管理员在直播间中点击用户资料卡右上角管理按钮&lt;/p&gt;</v>
+        <v>管理员在直播间中点击用户资料卡右上角管理按钮</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;拉起管理面板，包含“公屏禁言”操作&lt;/p&gt;</v>
+        <v>拉起管理面板，包含“公屏禁言”操作</v>
       </c>
     </row>
     <row r="4"/>
@@ -3850,23 +3670,19 @@
       <c r="A5" t="str">
         <v>公屏禁言操作</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
+      <c r="C5" t="str"/>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;
-	房主在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言&lt;/p&gt;
+        <v>
+	房主在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言
 </v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;
-	操作成功toast反馈&amp;ldquo;公屏禁言成功&amp;rdquo;&lt;/p&gt;
+        <v>
+	操作成功toast反馈公屏禁言成功
 </v>
       </c>
     </row>
@@ -3875,13 +3691,13 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;
-	管理员在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言&lt;/p&gt;
+        <v>
+	管理员在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言
 </v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;
-	操作成功toast反馈&amp;ldquo;公屏禁言成功&amp;rdquo;&lt;/p&gt;
+        <v>
+	操作成功toast反馈公屏禁言成功
 </v>
       </c>
     </row>
@@ -3890,20 +3706,18 @@
       <c r="A8" t="str">
         <v>解除公屏禁言操作</v>
       </c>
-      <c r="B8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B8" t="str"/>
       <c r="C8" t="str">
-        <v>&lt;p&gt;用户A当前已被禁言&lt;/p&gt;</v>
+        <v>用户A当前已被禁言</v>
       </c>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;房主在直播间中点击用户A的资料卡右上角管理按钮，对其进行解除禁言&lt;/p&gt;</v>
+        <v>房主在直播间中点击用户A的资料卡右上角管理按钮，对其进行解除禁言</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;操作成功toast反馈“解除禁言成功”&lt;/p&gt;</v>
+        <v>操作成功toast反馈“解除禁言成功”</v>
       </c>
     </row>
     <row r="9">
@@ -3911,10 +3725,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;管理员在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言&lt;/p&gt;</v>
+        <v>管理员在直播间中点击用户A的资料卡右上角管理按钮，对其进行禁言</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;操作成功toast反馈“解除禁言成功”&lt;/p&gt;</v>
+        <v>操作成功toast反馈“解除禁言成功”</v>
       </c>
     </row>
     <row r="10"/>
@@ -3922,20 +3736,16 @@
       <c r="A11" t="str">
         <v>用户侧被禁言及解禁提示</v>
       </c>
-      <c r="B11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C11" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B11" t="str"/>
+      <c r="C11" t="str"/>
       <c r="D11" t="str">
         <v>1</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;用户A被禁言，点击公屏发言（包括文字和图片）&lt;/p&gt;</v>
+        <v>用户A被禁言，点击公屏发言（包括文字和图片）</v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;toast提示“您已被禁止发送公屏”&lt;/p&gt;</v>
+        <v>toast提示“您已被禁止发送公屏”</v>
       </c>
     </row>
     <row r="12">
@@ -3943,10 +3753,10 @@
         <v>2</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;房主操作解除用户A的禁言&lt;/p&gt;</v>
+        <v>房主操作解除用户A的禁言</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;toast提示“您已被解除禁言，可发送公屏”&lt;/p&gt;</v>
+        <v>toast提示“您已被解除禁言，可发送公屏”</v>
       </c>
     </row>
   </sheetData>
@@ -3984,28 +3794,21 @@
       <c r="A2" t="str">
         <v>送花公屏流水</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	麦上用户A给房间内的麦上用户B送花&lt;/p&gt;
+        <v>
+	麦上用户A给房间内的麦上用户B送花
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.产生送花的座位动画效果（若双方在座席上，送花路径需从座位-座位），具体以设计稿为准&lt;/p&gt;
-&lt;p&gt;
-	（ios&lt;span style="background-color: rgb(255, 255, 255); font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap;"&gt;若双方在座席上，送花用户的页面送花路径从屏幕下方飞到座位，其他用户和收花用户显示送花路径需从座位-座位&lt;/span&gt;）&lt;/p&gt;
-&lt;p&gt;
-	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花&lt;/p&gt;
+        <v>
+	1.产生送花的座位动画效果（若双方在座席上，送花路径需从座位-座位），具体以设计稿为准
+	（ios若双方在座席上，送花用户的页面送花路径从屏幕下方飞到座位，其他用户和收花用户显示送花路径需从座位-座位）
+	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花
 </v>
       </c>
     </row>
@@ -4014,18 +3817,15 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	麦上用户A给房间内的麦下用户B送花&lt;/p&gt;
+        <v>
+	麦上用户A给房间内的麦下用户B送花
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.没有动画效果，具体以设计稿为准&lt;/p&gt;
-&lt;p&gt;
-	（ios&lt;span style="font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;送礼用户页面没有动画效果，其他用户和收花用户显示送花路径需从座位飞到屏幕下面&lt;/span&gt;）&lt;/p&gt;
-&lt;p&gt;
-	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花&lt;/p&gt;
+        <v>
+	1.没有动画效果，具体以设计稿为准
+	（ios送礼用户页面没有动画效果，其他用户和收花用户显示送花路径需从座位飞到屏幕下面）
+	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花
 </v>
       </c>
     </row>
@@ -4034,16 +3834,14 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;
-	麦下用户A给麦上用户B送花&lt;/p&gt;
+        <v>
+	麦下用户A给麦上用户B送花
 </v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.产生送花的座位动画效果，具体以设计稿为准（ios&lt;span style="background-color: rgb(255, 255, 255); font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap;"&gt;从屏幕下方飞到座位上&lt;/span&gt;）&lt;/p&gt;
-&lt;p&gt;
-	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花&lt;/p&gt;
+        <v>
+	1.产生送花的座位动画效果，具体以设计稿为准（ios从屏幕下方飞到座位上）
+	2.显示公屏流水，格式为：送花用户给收花用户送了1朵花花；例如 溜溜给桃桃送了1朵花花
 </v>
       </c>
     </row>
@@ -4082,28 +3880,24 @@
       <c r="A2" t="str">
         <v>礼物全麦连送-满座</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
       <c r="C2" t="str">
-        <v>&lt;p&gt;房间所有麦位都有用户&lt;/p&gt;</v>
+        <v>房间所有麦位都有用户</v>
       </c>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为&lt;br /&gt;
-	1，点击赠送按钮&lt;/p&gt;
+        <v>
+	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为
+	1，点击赠送按钮
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播昵称），BCDEFGHI用户（麦上嘉宾昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送X1 &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给A用户（主播昵称或麦上嘉宾昵称）...&amp;rdquo; 送了礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） 
+	2、送礼横幅显示为：XXX送A用户（主播昵称），BCDEFGHI用户（麦上嘉宾昵称）等X位用户礼物icon1数量连送X1 
+	3、公屏流水显示为：XXX给A用户（主播昵称或麦上嘉宾昵称）... 送了礼物iconX1数量
 </v>
       </c>
     </row>
@@ -4112,19 +3906,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	点击连送按钮&lt;/p&gt;
+        <v>
+	点击连送按钮
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送了&amp;ldquo;A用户（主播昵称），BCDEFGHI用户（麦上嘉宾昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送&amp;ldquo;x&amp;rdquo;N &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给A用户（主播昵称或麦上嘉宾昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、连送动画效果调整为座位动画可重叠（参考设计稿） &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;4、检查剩余钻石数=原钻石数-单个礼物钻石数x8（满座8个用户）x2（1和2步骤共送2次）&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼横幅显示为：XXX送了A用户（主播昵称），BCDEFGHI用户（麦上嘉宾昵称）等X位用户礼物icon1数量连送xN 
+	2、公屏流水显示为：XXX给A用户（主播昵称或麦上嘉宾昵称）... 送了礼物iconX1数量
+	3、连送动画效果调整为座位动画可重叠（参考设计稿） 
+	4、检查剩余钻石数=原钻石数-单个礼物钻石数x8（满座8个用户）x2（1和2步骤共送2次）
 </v>
       </c>
     </row>
@@ -4133,29 +3924,24 @@
       <c r="A5" t="str">
         <v>礼物全麦连送-只有1个麦上嘉宾</v>
       </c>
-      <c r="B5" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B5" t="str"/>
       <c r="C5" t="str">
-        <v>&lt;p&gt;房间只有1个麦上嘉宾&lt;/p&gt;</v>
+        <v>房间只有1个麦上嘉宾</v>
       </c>
       <c r="D5" t="str">
         <v>1</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;
-	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为&lt;br /&gt;
-	1，点击赠送按钮&lt;/p&gt;
+        <v>
+	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为
+	1，点击赠送按钮
 </v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播昵称），B用户（麦上嘉宾昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送X1 &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给&amp;ldquo;A用户（主播昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） 
+	2、送礼横幅显示为：XXX送A用户（主播昵称），B用户（麦上嘉宾昵称）等X位用户礼物icon1数量连送X1 
+	3、公屏流水显示为：XXX给A用户（主播昵称）... 送了礼物iconX1数量
 </v>
       </c>
     </row>
@@ -4164,19 +3950,15 @@
         <v>2</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;
-	点击连送按钮&lt;/p&gt;
+        <v>
+	点击连送按钮
 </v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播昵称），B用户（麦上嘉宾昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送&amp;ldquo;x&amp;rdquo;N &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给&amp;ldquo;A用户（主播昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot; &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、连送动画效果调整为座位动画可重叠（参考设计稿）&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼横幅显示为：XXX送A用户（主播昵称），B用户（麦上嘉宾昵称）等X位用户礼物icon1数量连送xN 
+	2、公屏流水显示为：XXX给A用户（主播昵称）... 送了礼物iconX1数量 
+	3、连送动画效果调整为座位动画可重叠（参考设计稿）
 </v>
       </c>
     </row>
@@ -4185,20 +3967,16 @@
         <v>3</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;
-	再次点击连送按钮&lt;/p&gt;
+        <v>
+	再次点击连送按钮
 </v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播昵称），B用户（麦上嘉宾昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送&amp;ldquo;x&amp;rdquo;N &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给&amp;ldquo;A用户（主播昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot; &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、连送动画效果调整为座位动画可重叠（参考设计稿）&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;4、检查剩余钻石数=原钻石数-单个礼物钻石数x2（主播+麦上嘉宾共2人）x3（1-3步骤共送3次）&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼横幅显示为：XXX送A用户（主播昵称），B用户（麦上嘉宾昵称）等X位用户礼物icon1数量连送xN 
+	2、公屏流水显示为：XXX给A用户（主播昵称）... 送了礼物iconX1数量 
+	3、连送动画效果调整为座位动画可重叠（参考设计稿）
+	4、检查剩余钻石数=原钻石数-单个礼物钻石数x2（主播+麦上嘉宾共2人）x3（1-3步骤共送3次）
 </v>
       </c>
     </row>
@@ -4207,29 +3985,24 @@
       <c r="A9" t="str">
         <v>礼物全麦连送-有7个麦上嘉宾</v>
       </c>
-      <c r="B9" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B9" t="str"/>
       <c r="C9" t="str">
-        <v>&lt;p&gt;房间有7个麦上嘉宾&lt;/p&gt;</v>
+        <v>房间有7个麦上嘉宾</v>
       </c>
       <c r="D9" t="str">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;
-	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为&lt;br /&gt;
-	1，点击赠送按钮&lt;/p&gt;
+        <v>
+	送礼面板，全麦按钮选中，选择某个礼物，送礼数量为
+	1，点击赠送按钮
 </v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、送礼横幅显示为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播或麦上嘉宾任意1个用户昵称），BCDEFGH用户（主播或麦上嘉宾任意1个用户昵称）等&amp;rdquo; 1*礼物icon &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、公屏流水显示为：&amp;ldquo;XXX&amp;rdquo;给&amp;ldquo;A用户（主播或麦上嘉宾任意1个用户昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、送礼面板收起，右下角显示连送按钮（连送按钮动画效果与送单个用户时出现连送按钮动画一致） 
+	2、送礼横幅显示为：XXX送A用户（主播或麦上嘉宾任意1个用户昵称），BCDEFGH用户（主播或麦上嘉宾任意1个用户昵称）等 1*礼物icon 
+	3、公屏流水显示为：XXX给A用户（主播或麦上嘉宾任意1个用户昵称）... 送了礼物iconX1数量
 </v>
       </c>
     </row>
@@ -4238,20 +4011,16 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;
-	连续三次点击连送按钮&lt;/p&gt;
+        <v>
+	连续三次点击连送按钮
 </v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;1、显示3条公屏流水，公屏内容都为：&amp;ldquo;XXX给&amp;ldquo;A用户（主播或麦上嘉宾任意1个用户昵称）...&amp;rdquo; 送了&amp;#39;&amp;#39;礼物icon&amp;quot;X&amp;quot;&amp;quot;1数量&amp;quot;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;2、显示1条送礼横幅，内容都为：&amp;ldquo;XXX&amp;rdquo;送&amp;ldquo;A用户（主播或麦上嘉宾任意1个用户昵称），BCDEFGH用户（主播或麦上嘉宾任意1个用户昵称）等&amp;rdquo;X位用户礼物icon&amp;quot;1数量&amp;quot;连送&amp;ldquo;x&amp;rdquo;3 &lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;3、连送动画效果调整为座位动画可重叠（参考设计稿）&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 15px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;4、检查剩余钻石数=原钻石数-单个礼物钻石数x8（主播+麦上嘉宾共8人）x4（1-2步骤共送4次）&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1、显示3条公屏流水，公屏内容都为：XXX给A用户（主播或麦上嘉宾任意1个用户昵称）... 送了礼物iconX1数量
+	2、显示1条送礼横幅，内容都为：XXX送A用户（主播或麦上嘉宾任意1个用户昵称），BCDEFGH用户（主播或麦上嘉宾任意1个用户昵称）等X位用户礼物icon1数量连送x3 
+	3、连送动画效果调整为座位动画可重叠（参考设计稿）
+	4、检查剩余钻石数=原钻石数-单个礼物钻石数x8（主播+麦上嘉宾共8人）x4（1-2步骤共送4次）
 </v>
       </c>
     </row>
@@ -4260,23 +4029,19 @@
       <c r="A12" t="str">
         <v>礼物面板-检查默认选择送礼对象</v>
       </c>
-      <c r="B12" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C12" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B12" t="str"/>
+      <c r="C12" t="str"/>
       <c r="D12" t="str">
         <v>1</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;
-	房间无麦上嘉宾，未在此房间送礼，用户打开送礼面板&lt;/p&gt;
+        <v>
+	房间无麦上嘉宾，未在此房间送礼，用户打开送礼面板
 </v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;
-	面板默认选择送礼对象为房主&lt;/p&gt;
+        <v>
+	面板默认选择送礼对象为房主
 </v>
       </c>
     </row>
@@ -4285,10 +4050,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="str">
-        <v>&lt;p&gt;房间有麦上嘉宾，未在此房间送礼，打开送礼面板&lt;/p&gt;</v>
+        <v>房间有麦上嘉宾，未在此房间送礼，打开送礼面板</v>
       </c>
       <c r="F13" t="str">
-        <v>&lt;p&gt;面板默认选择送礼对象为房主&lt;/p&gt;</v>
+        <v>面板默认选择送礼对象为房主</v>
       </c>
     </row>
     <row r="14">
@@ -4296,10 +4061,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;给房主送礼，再次打开送礼面板&lt;/p&gt;</v>
+        <v>给房主送礼，再次打开送礼面板</v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;面板默认选择送礼对象为房主&lt;/p&gt;</v>
+        <v>面板默认选择送礼对象为房主</v>
       </c>
     </row>
     <row r="15">
@@ -4307,10 +4072,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;全麦送礼，再次打开送礼面板&lt;/p&gt;</v>
+        <v>全麦送礼，再次打开送礼面板</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;面板默认选择送礼对象为全麦&lt;/p&gt;</v>
+        <v>面板默认选择送礼对象为全麦</v>
       </c>
     </row>
     <row r="16">
@@ -4318,10 +4083,10 @@
         <v>5</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;给嘉宾送礼，再次打开送礼面板&lt;/p&gt;</v>
+        <v>给嘉宾送礼，再次打开送礼面板</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;面板默认选择送礼对象为上次送礼的嘉宾&lt;/p&gt;</v>
+        <v>面板默认选择送礼对象为上次送礼的嘉宾</v>
       </c>
     </row>
     <row r="17">
@@ -4329,10 +4094,10 @@
         <v>6</v>
       </c>
       <c r="E17" t="str">
-        <v>&lt;p&gt;上次送礼的嘉宾下麦，再次打开送礼面板&lt;/p&gt;</v>
+        <v>上次送礼的嘉宾下麦，再次打开送礼面板</v>
       </c>
       <c r="F17" t="str">
-        <v>&lt;p&gt;面板默认选择送礼对象为房主&lt;/p&gt;</v>
+        <v>面板默认选择送礼对象为房主</v>
       </c>
     </row>
     <row r="18"/>
@@ -4340,20 +4105,16 @@
       <c r="A19" t="str">
         <v>礼物面板-全麦按钮取消选择</v>
       </c>
-      <c r="B19" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C19" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B19" t="str"/>
+      <c r="C19" t="str"/>
       <c r="D19" t="str">
         <v>1</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;房间有麦上嘉宾，打开送礼面板，点击全麦按钮&lt;/p&gt;</v>
+        <v>房间有麦上嘉宾，打开送礼面板，点击全麦按钮</v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;查看送礼对象：全麦按钮和所有用户头像都为选中状态&lt;/p&gt;</v>
+        <v>查看送礼对象：全麦按钮和所有用户头像都为选中状态</v>
       </c>
     </row>
     <row r="20">
@@ -4361,10 +4122,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;点击某个用户头像&lt;/p&gt;</v>
+        <v>点击某个用户头像</v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;查看送礼对象：全麦按钮和此用户头像为未选中状态&lt;/p&gt;</v>
+        <v>查看送礼对象：全麦按钮和此用户头像为未选中状态</v>
       </c>
     </row>
     <row r="21">
@@ -4372,10 +4133,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;再次点击此用户头像&lt;/p&gt;</v>
+        <v>再次点击此用户头像</v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;查看送礼对象：全麦按钮和所有用户头像都为选中状态&lt;/p&gt;</v>
+        <v>查看送礼对象：全麦按钮和所有用户头像都为选中状态</v>
       </c>
     </row>
     <row r="22">
@@ -4383,10 +4144,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="str">
-        <v>&lt;p&gt;点击全麦按钮&lt;/p&gt;</v>
+        <v>点击全麦按钮</v>
       </c>
       <c r="F22" t="str">
-        <v>&lt;p&gt;查看送礼对象：全麦按钮和所有用户头像都为未选中状态&lt;/p&gt;</v>
+        <v>查看送礼对象：全麦按钮和所有用户头像都为未选中状态</v>
       </c>
     </row>
     <row r="23">
@@ -4394,10 +4155,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="str">
-        <v>&lt;p&gt;房间无麦上嘉宾，重复1-4步骤&lt;/p&gt;</v>
+        <v>房间无麦上嘉宾，重复1-4步骤</v>
       </c>
       <c r="F23" t="str">
-        <v>&lt;p&gt;期望结果与1-4步骤相同&lt;/p&gt;</v>
+        <v>期望结果与1-4步骤相同</v>
       </c>
     </row>
   </sheetData>
@@ -4435,23 +4196,19 @@
       <c r="A2" t="str">
         <v>抱用户上麦</v>
       </c>
-      <c r="B2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B2" t="str"/>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	房主点击语音房内的空座位&lt;/p&gt;
+        <v>
+	房主点击语音房内的空座位
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	展开选项卡：抱用户上座、封闭座位（解封座位）、封闭座位声音、取消&lt;/p&gt;
+        <v>
+	展开选项卡：抱用户上座、封闭座位（解封座位）、封闭座位声音、取消
 </v>
       </c>
     </row>
@@ -4460,11 +4217,11 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;点击抱用户上麦&lt;/p&gt;</v>
+        <v>点击抱用户上麦</v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.拉起当前在线且不在麦上的用户列表，列表以拉取时为准
-&lt;br&gt;2.列表信息包括用户头像、昵称、性别、抱上座按钮&lt;/p&gt;</v>
+        <v>1.拉起当前在线且不在麦上的用户列表，列表以拉取时为准
+2.列表信息包括用户头像、昵称、性别、抱上座按钮</v>
       </c>
     </row>
     <row r="4">
@@ -4472,11 +4229,11 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;点击任意一个用户的【抱上座】按钮&lt;/p&gt;</v>
+        <v>点击任意一个用户的【抱上座】按钮</v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;&lt;br&gt;1.房主侧toast提示“已发出上座邀请”此时按钮文案变为【等待用户确认】；
-&lt;br&gt;2.用户侧在收到抱座请求时需弹窗给用户确认，文案为“收到上座邀请，是否立即上座？&lt;/p&gt;</v>
+        <v>1.房主侧toast提示“已发出上座邀请”此时按钮文案变为【等待用户确认】；
+2.用户侧在收到抱座请求时需弹窗给用户确认，文案为“收到上座邀请，是否立即上座？</v>
       </c>
     </row>
     <row r="5">
@@ -4484,14 +4241,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	3，用户点击【否】&lt;/p&gt;
+        <v>
+	接步骤
+	3，用户点击【否】
 </v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;
-	管理侧toast提示&amp;ldquo;用户XXX拒绝了上座邀请&amp;rdquo;&lt;/p&gt;
+        <v>
+	管理侧toast提示用户XXX拒绝了上座邀请
 </v>
       </c>
     </row>
@@ -4500,16 +4257,15 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	3，用户点击【是】&lt;/p&gt;
+        <v>
+	接步骤
+	3，用户点击【是】
 </v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.用户上座到该座位上&lt;br /&gt;
-	2.管理侧收到toast提示&amp;ldquo;用户XXX已接受上座邀请&amp;rdquo;&lt;/p&gt;
+        <v>
+	1.用户上座到该座位上
+	2.管理侧收到toast提示用户XXX已接受上座邀请
 </v>
       </c>
     </row>
@@ -4518,10 +4274,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;5，再次点击空座位-选择抱用户上麦&lt;/p&gt;</v>
+        <v>接步骤5，再次点击空座位-选择抱用户上麦</v>
       </c>
       <c r="F7" t="str">
-        <v>&lt;p&gt;拉起用户列表，列表更新，不显示已上麦的用户&lt;/p&gt;</v>
+        <v>拉起用户列表，列表更新，不显示已上麦的用户</v>
       </c>
     </row>
     <row r="8"/>
@@ -4529,23 +4285,21 @@
       <c r="A9" t="str">
         <v>抱用户上麦-多用户</v>
       </c>
-      <c r="B9" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B9" t="str"/>
       <c r="C9" t="str">
-        <v>&lt;p&gt;点击空座位，展开抱用户上麦列表&lt;/p&gt;</v>
+        <v>点击空座位，展开抱用户上麦列表</v>
       </c>
       <c r="D9" t="str">
         <v>1</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;
-	房主点击N个（N&amp;gt;3）用户的抱上座按钮&lt;/p&gt;
+        <v>
+	房主点击N个（N3）用户的抱上座按钮
 </v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;
-	用户均可正常收到邀请弹框&lt;/p&gt;
+        <v>
+	用户均可正常收到邀请弹框
 </v>
       </c>
     </row>
@@ -4554,13 +4308,13 @@
         <v>2</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 13px; text-decoration-skip-ink: none;"&gt;房主邀请多个用户坐同一个位置上，用户均同意邀请&lt;/span&gt;&lt;/p&gt;
+        <v>
+	房主邀请多个用户坐同一个位置上，用户均同意邀请
 </v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 13px; text-decoration-skip-ink: none;"&gt;1.第一个同意的用户上座到该空位，管理类侧收到toast提示：&amp;ldquo;用户XXX*（第一个同意的用户昵称）已接受上座邀请&amp;rdquo; 2.其他用户点击同意后，不会上座且有toast提示&amp;ldquo;已有其他用户上座&amp;rdquo;，管理侧提示&amp;ldquo;用户XXX上座失败&amp;rdquo;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1.第一个同意的用户上座到该空位，管理类侧收到toast提示：用户XXX*（第一个同意的用户昵称）已接受上座邀请 2.其他用户点击同意后，不会上座且有toast提示已有其他用户上座，管理侧提示用户XXX上座失败
 </v>
       </c>
     </row>
@@ -4569,13 +4323,13 @@
         <v>3</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;
-	部分用户点击同意，部分用户点击拒绝&lt;/p&gt;
+        <v>
+	部分用户点击同意，部分用户点击拒绝
 </v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 13px; text-decoration-skip-ink: none;"&gt;1.第一个同意的用户上座到该空位，管理类侧收到toast提示：&amp;ldquo;用户XXX*（第一个同意的用户昵称）已接受上座邀请&amp;rdquo; 2.其他用户点击拒绝后，不会上座且管理侧提示&amp;ldquo;用户XXX拒绝了上座邀请&amp;rdquo;&lt;/span&gt;&lt;/p&gt;
+        <v>
+	1.第一个同意的用户上座到该空位，管理类侧收到toast提示：用户XXX*（第一个同意的用户昵称）已接受上座邀请 2.其他用户点击拒绝后，不会上座且管理侧提示用户XXX拒绝了上座邀请
 </v>
       </c>
     </row>
@@ -4615,23 +4369,21 @@
         <v>语音房-公告</v>
       </c>
       <c r="B2" t="str">
-        <v>&lt;p&gt;V&lt;br&gt;3.2版本增加管理员编辑公告权限&lt;/p&gt;</v>
-      </c>
-      <c r="C2" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+        <v>V3.2版本增加管理员编辑公告权限</v>
+      </c>
+      <c r="C2" t="str"/>
       <c r="D2" t="str">
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;
-	未设置过公告，房主、管理员及其他用户查看房主昵称下方&lt;/p&gt;
+        <v>
+	未设置过公告，房主、管理员及其他用户查看房主昵称下方
 </v>
       </c>
       <c r="F2" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;房主显示：暂无公告，点击编辑&lt;/span&gt;&lt;br style="font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap;" /&gt;
-	&lt;span style="font-family: Roboto, RobotoDraft, Helvetica, Arial, sans-serif; font-size: 13px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;其他用户，管理员显示：房间公告&lt;/span&gt;&lt;/p&gt;
+        <v>
+	房主显示：暂无公告，点击编辑
+	其他用户，管理员显示：房间公告
 </v>
       </c>
     </row>
@@ -4640,14 +4392,14 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;
-	接步骤&lt;br /&gt;
-	1，普通观众点击公告区域&lt;/p&gt;
+        <v>
+	接步骤
+	1，普通观众点击公告区域
 </v>
       </c>
       <c r="F3" t="str">
-        <v>&lt;p&gt;
-	&lt;span style="font-family: Arial; font-size: 13px; white-space: pre-wrap; background-color: rgb(255, 255, 255);"&gt;点击显示房间公告面板&lt;/span&gt;&lt;/p&gt;
+        <v>
+	点击显示房间公告面板
 </v>
       </c>
     </row>
@@ -4656,13 +4408,13 @@
         <v>3</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;
-	房主、管理员点击更多，编辑公告&lt;/p&gt;
+        <v>
+	房主、管理员点击更多，编辑公告
 </v>
       </c>
       <c r="F4" t="str">
-        <v>&lt;p&gt;
-	进入编辑公告弹窗界面&lt;/p&gt;
+        <v>
+	进入编辑公告弹窗界面
 </v>
       </c>
     </row>
@@ -4671,15 +4423,14 @@
         <v>4</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;
-	房主/管理员（测试需要覆盖身份）设置公告内容后点击保存&lt;/p&gt;
+        <v>
+	房主/管理员（测试需要覆盖身份）设置公告内容后点击保存
 </v>
       </c>
       <c r="F5" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.提交成功&lt;br /&gt;
-	2.房间主页面，房主昵称下方显示公告的前10个字，超出&amp;hellip;显示&lt;/p&gt;
+        <v>
+	1.提交成功
+	2.房间主页面，房主昵称下方显示公告的前10个字，超出显示
 </v>
       </c>
     </row>
@@ -4688,10 +4439,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;接步骤&lt;br&gt;4，普通观众点击公告区域&lt;/p&gt;</v>
+        <v>接步骤4，普通观众点击公告区域</v>
       </c>
       <c r="F6" t="str">
-        <v>&lt;p&gt;拉起公告弹窗，可完整查看公告详情&lt;/p&gt;</v>
+        <v>拉起公告弹窗，可完整查看公告详情</v>
       </c>
     </row>
     <row r="7"/>
@@ -4700,19 +4451,17 @@
         <v>语音房-房间名称</v>
       </c>
       <c r="B8" t="str">
-        <v>&lt;p&gt;V&lt;br&gt;3.2版本增加管理员编辑房间信息权限&lt;/p&gt;</v>
-      </c>
-      <c r="C8" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+        <v>V3.2版本增加管理员编辑房间信息权限</v>
+      </c>
+      <c r="C8" t="str"/>
       <c r="D8" t="str">
         <v>1</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;房主/管理员（测试需要覆盖身份）点击右上角…，编辑房间名&lt;/p&gt;</v>
+        <v>房主/管理员（测试需要覆盖身份）点击右上角…，编辑房间名</v>
       </c>
       <c r="F8" t="str">
-        <v>&lt;p&gt;展开半屏房间名称编辑弹框&lt;/p&gt;</v>
+        <v>展开半屏房间名称编辑弹框</v>
       </c>
     </row>
     <row r="9">
@@ -4720,10 +4469,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="str">
-        <v>&lt;p&gt;删除房间名称点击保存&lt;/p&gt;</v>
+        <v>删除房间名称点击保存</v>
       </c>
       <c r="F9" t="str">
-        <v>&lt;p&gt;置灰不可点击或者点击后toast提示不可操作&lt;/p&gt;</v>
+        <v>置灰不可点击或者点击后toast提示不可操作</v>
       </c>
     </row>
     <row r="10">
@@ -4731,10 +4480,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="str">
-        <v>&lt;p&gt;修改为含有中英文、数字、特殊字符、表情等&lt;/p&gt;</v>
+        <v>修改为含有中英文、数字、特殊字符、表情等</v>
       </c>
       <c r="F10" t="str">
-        <v>&lt;p&gt;可以正常保存，房间内用户查看到为最新的房间名称&lt;/p&gt;</v>
+        <v>可以正常保存，房间内用户查看到为最新的房间名称</v>
       </c>
     </row>
     <row r="11">
@@ -4742,15 +4491,14 @@
         <v>4</v>
       </c>
       <c r="E11" t="str">
-        <v>&lt;p&gt;
-	修改房间名称为20个字（限制最大字数）&lt;/p&gt;
+        <v>
+	修改房间名称为20个字（限制最大字数）
 </v>
       </c>
       <c r="F11" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.修改为20个字可以正常保存并显示&lt;br /&gt;
-	2.限制无法输入超过20个字&lt;/p&gt;
+        <v>
+	1.修改为20个字可以正常保存并显示
+	2.限制无法输入超过20个字
 </v>
       </c>
     </row>
@@ -4759,10 +4507,10 @@
         <v>5</v>
       </c>
       <c r="E12" t="str">
-        <v>&lt;p&gt;普通观众点击房间名称&lt;/p&gt;</v>
+        <v>普通观众点击房间名称</v>
       </c>
       <c r="F12" t="str">
-        <v>&lt;p&gt;点击无交互&lt;/p&gt;</v>
+        <v>点击无交互</v>
       </c>
     </row>
     <row r="13"/>
@@ -4770,23 +4518,19 @@
       <c r="A14" t="str">
         <v>房间黑名单</v>
       </c>
-      <c r="B14" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
-      <c r="C14" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B14" t="str"/>
+      <c r="C14" t="str"/>
       <c r="D14" t="str">
         <v>1</v>
       </c>
       <c r="E14" t="str">
-        <v>&lt;p&gt;
-	房主/管理员点击观众A查看个人资料卡-管理-加入房间黑名单&lt;/p&gt;
+        <v>
+	房主/管理员点击观众A查看个人资料卡-管理-加入房间黑名单
 </v>
       </c>
       <c r="F14" t="str">
-        <v>&lt;p&gt;
-	用户A被踢出房间并提示：&amp;ldquo;您已被加入房间黑名单，无法进入当前房间&amp;rdquo;&lt;/p&gt;
+        <v>
+	用户A被踢出房间并提示：您已被加入房间黑名单，无法进入当前房间
 </v>
       </c>
     </row>
@@ -4795,10 +4539,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="str">
-        <v>&lt;p&gt;用户A再次点击进入房间&lt;/p&gt;</v>
+        <v>用户A再次点击进入房间</v>
       </c>
       <c r="F15" t="str">
-        <v>&lt;p&gt;提示“您已被加入房间黑名单，无法进入当前房间”&lt;/p&gt;</v>
+        <v>提示“您已被加入房间黑名单，无法进入当前房间”</v>
       </c>
     </row>
     <row r="16">
@@ -4806,10 +4550,10 @@
         <v>3</v>
       </c>
       <c r="E16" t="str">
-        <v>&lt;p&gt;房主点击右上角…，查看房间黑名单&lt;/p&gt;</v>
+        <v>房主点击右上角…，查看房间黑名单</v>
       </c>
       <c r="F16" t="str">
-        <v>&lt;p&gt;显示用户A头像、昵称、解除拉黑按钮&lt;/p&gt;</v>
+        <v>显示用户A头像、昵称、解除拉黑按钮</v>
       </c>
     </row>
     <row r="17"/>
@@ -4817,20 +4561,18 @@
       <c r="A18" t="str">
         <v>房间黑名单_解除拉黑</v>
       </c>
-      <c r="B18" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;</v>
-      </c>
+      <c r="B18" t="str"/>
       <c r="C18" t="str">
-        <v>&lt;p&gt;用户被拉管理员A拉进房间黑名单&lt;/p&gt;</v>
+        <v>用户被拉管理员A拉进房间黑名单</v>
       </c>
       <c r="D18" t="str">
         <v>1</v>
       </c>
       <c r="E18" t="str">
-        <v>&lt;p&gt;管理员A点击右上角…，查看房间黑名单&lt;/p&gt;</v>
+        <v>管理员A点击右上角…，查看房间黑名单</v>
       </c>
       <c r="F18" t="str">
-        <v>&lt;p&gt;查看到该用户的信息&lt;/p&gt;</v>
+        <v>查看到该用户的信息</v>
       </c>
     </row>
     <row r="19">
@@ -4838,10 +4580,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="str">
-        <v>&lt;p&gt;房主点击右上角…，查看房间黑名单&lt;/p&gt;</v>
+        <v>房主点击右上角…，查看房间黑名单</v>
       </c>
       <c r="F19" t="str">
-        <v>&lt;p&gt;查看到该用户的信息，点击可以成功解除黑名单&lt;/p&gt;</v>
+        <v>查看到该用户的信息，点击可以成功解除黑名单</v>
       </c>
     </row>
     <row r="20">
@@ -4849,13 +4591,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="str">
-        <v>&lt;p&gt;
-	接前提，其他管理B点击右上角&amp;hellip;，查看房间黑名单&lt;/p&gt;
+        <v>
+	接前提，其他管理B点击右上角，查看房间黑名单
 </v>
       </c>
       <c r="F20" t="str">
-        <v>&lt;p&gt;
-	查看到该用户的信息，点击可以成功解除黑名单，删除该条用户记录&lt;/p&gt;
+        <v>
+	查看到该用户的信息，点击可以成功解除黑名单，删除该条用户记录
 </v>
       </c>
     </row>
@@ -4864,16 +4606,15 @@
         <v>4</v>
       </c>
       <c r="E21" t="str">
-        <v>&lt;p&gt;
-	接步骤2-&lt;br /&gt;
-	3，点击解除拉黑按钮&lt;/p&gt;
+        <v>
+	接步骤2-
+	3，点击解除拉黑按钮
 </v>
       </c>
       <c r="F21" t="str">
-        <v>&lt;p&gt;
-	&lt;br /&gt;
-	1.删除该条用户记录&lt;br /&gt;
-	2.用户可以正常进入该语音房&lt;/p&gt;
+        <v>
+	1.删除该条用户记录
+	2.用户可以正常进入该语音房
 </v>
       </c>
     </row>
